--- a/課題11月1から開始/喜遼_進捗コスト表.xlsx
+++ b/課題11月1から開始/喜遼_進捗コスト表.xlsx
@@ -5,19 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447030\Documents\GitHub\Game_Kiryo\課題11月1から開始\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447030\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F884340-A86D-4B16-8E62-2FC9D2E11251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E7ADAC-CAB8-4757-BE5A-64B62DBE3C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="アルファ" sheetId="1" r:id="rId1"/>
-    <sheet name="ベータ" sheetId="2" r:id="rId2"/>
-    <sheet name="マスタ" sheetId="3" r:id="rId3"/>
+    <sheet name="作業状況" sheetId="7" r:id="rId1"/>
+    <sheet name="作業効率見積もり" sheetId="6" r:id="rId2"/>
+    <sheet name="11.25元データ" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業効率見積もり!$B$2:$H$80</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="215">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -551,6 +555,517 @@
   <si>
     <t>　―　cpu3</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　判定　</t>
+    <rPh sb="1" eb="3">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI素材</t>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ素材</t>
+    <rPh sb="3" eb="5">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ(敵含む)</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾(その他)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球と球の当たり判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球と短形の当たり判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球とマップの当たり判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短形と球の当たり判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短形と短形の当たり判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短形とマップの当たり判定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス(残りストック)</t>
+    <rPh sb="6" eb="7">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム演出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動ステージ選択</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再生速度調整</t>
+    <rPh sb="0" eb="2">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再生</t>
+    <rPh sb="0" eb="2">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOS(コスト5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cpu3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cpu2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション実装</t>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃(投げる)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃(踏みつける)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標回転と拡大</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト停止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト再生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ操作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー操作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置データの読み込み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置データの保存</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ選択画面コスト５</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ設計3(コスト6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルファ素材集め</t>
+    <rPh sb="4" eb="6">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス設計</t>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ設計</t>
+    <rPh sb="5" eb="7">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+  </si>
+  <si>
+    <t>敵</t>
+  </si>
+  <si>
+    <t>キャラクター</t>
+  </si>
+  <si>
+    <t>アニメーション処理</t>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+  </si>
+  <si>
+    <t>マップ</t>
+  </si>
+  <si>
+    <t>音処理</t>
+    <rPh sb="0" eb="3">
+      <t>オトショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>ビルドテスト</t>
+  </si>
+  <si>
+    <t>マップ実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM再生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE再生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音量調整の処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面2(コスト3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面3(コスト3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロト</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>マスター</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>変化(キノコ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変化(炎花)</t>
+    <rPh sb="3" eb="4">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変化(氷花)</t>
+    <rPh sb="3" eb="4">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃(炎花,放つ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃(氷花,放つ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被弾(キノコ→元)</t>
+    <rPh sb="7" eb="8">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被弾(炎花→キノコ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被弾(氷花→キノコ)</t>
+    <rPh sb="3" eb="4">
+      <t>コオリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+  </si>
+  <si>
+    <t>作業中</t>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業工数</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウコウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ発生中</t>
+  </si>
+  <si>
+    <t>完了</t>
   </si>
 </sst>
 </file>
@@ -561,7 +1076,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,8 +1107,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,8 +1186,33 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -704,11 +1261,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -726,11 +1313,82 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="14" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="アクセント 1" xfId="2" builtinId="29"/>
+    <cellStyle name="アクセント 2" xfId="3" builtinId="33"/>
+    <cellStyle name="アクセント 4" xfId="4" builtinId="41"/>
+    <cellStyle name="アクセント 5" xfId="1" builtinId="45"/>
+    <cellStyle name="アクセント 6" xfId="5" builtinId="49"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1005,11 +1663,1714 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797CB909-86B9-4463-B23D-74EEE6CF1674}">
+  <dimension ref="B2:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>SUM(作業効率見積もり!F3:F80)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <f ca="1">SUMIF(作業効率見積もり!H3:H80,"完了",作業効率見積もり!F3:I7)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <f ca="1">NETWORKDAYS(C5,C6)</f>
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <f ca="1" xml:space="preserve"> C3/ C4</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <f>DATE(2024,11,1)</f>
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <f>DATE(2024,12,20)</f>
+        <v>45646</v>
+      </c>
+      <c r="D9" s="2">
+        <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <f ca="1">($C$2 - $C$3) / D9</f>
+        <v>2.7250000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <f>DATE(2025,1,17)</f>
+        <v>45674</v>
+      </c>
+      <c r="D10" s="2">
+        <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3">
+        <f ca="1">($C$2 - $C$3) / D10</f>
+        <v>1.3625</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <f>DATE(2025,2,3)</f>
+        <v>45691</v>
+      </c>
+      <c r="D11" s="2">
+        <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
+        <v>51</v>
+      </c>
+      <c r="E11" s="3">
+        <f ca="1">($C$2 - $C$3) / D11</f>
+        <v>1.0686274509803921</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16">
+        <f ca="1">SUMIF(作業効率見積もり!D3:D80,"S",作業効率見積もり!F3:I7)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17">
+        <f ca="1">SUMIF(作業効率見積もり!D3:D80,"A",作業効率見積もり!F3:I7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18">
+        <f ca="1">SUMIF(作業効率見積もり!D3:D80,"B",作業効率見積もり!F3:I7)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19">
+        <f ca="1">SUMIF(作業効率見積もり!D3:D80,"C",作業効率見積もり!F3:I7)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}">
+  <dimension ref="B2:H80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="17">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17">
+        <v>2</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17">
+        <v>2</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17">
+        <v>2</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17">
+        <v>4</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17">
+        <v>2.25</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17">
+        <v>2.25</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17">
+        <v>2.25</v>
+      </c>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17">
+        <v>2.25</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:H80" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}"/>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$C3=" 完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:H80">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$H3="完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$H3="バグ発生中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$H3="作業中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E80" xr:uid="{DEF53051-3C63-4D14-AD01-861C95762F58}">
+      <formula1>"プロト,α,β,マスター"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D80" xr:uid="{63FF5DD3-50FC-403D-A1DC-E330178AE879}">
+      <formula1>"S,A,B,C"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H80" xr:uid="{68F1F4A1-27E7-45AE-AD87-35E3EA118C7B}">
+      <formula1>"未着手,作業中,バグ発生中,完了"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1089,7 +3450,7 @@
       </c>
       <c r="H4" s="2">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3">
         <f ca="1" xml:space="preserve"> H3/ H4</f>
@@ -1127,7 +3488,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45607</v>
+        <v>45621</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1180,11 +3541,11 @@
       </c>
       <c r="I9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J9" s="3">
         <f ca="1">($H$2 - $H$3) / I9</f>
-        <v>3.8916666666666666</v>
+        <v>5.8375000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1207,11 +3568,11 @@
       </c>
       <c r="I10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J10" s="3">
         <f ca="1">($H$2 - $H$3) / I10</f>
-        <v>2.335</v>
+        <v>2.9187500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1234,11 +3595,11 @@
       </c>
       <c r="I11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J11" s="3">
         <f ca="1">($H$2 - $H$3) / I11</f>
-        <v>1.9139344262295082</v>
+        <v>2.2892156862745097</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2157,37 +4518,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA4416D-9062-4DAF-A047-57AB4A8BE771}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3D2C22-999A-42D4-BD4F-8D4FC0E5041D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
@@ -2196,15 +4536,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2409,20 +4740,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
     <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/課題11月1から開始/喜遼_進捗コスト表.xlsx
+++ b/課題11月1から開始/喜遼_進捗コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447030\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石喜遼\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E7ADAC-CAB8-4757-BE5A-64B62DBE3C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB4B06B-7290-41AF-86C4-9D2FCC1E692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="360" windowWidth="38250" windowHeight="15285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業状況" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業効率見積もり!$B$2:$H$80</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="218">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -821,10 +820,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マップ設計3(コスト6)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>当たり判定</t>
     <rPh sb="0" eb="1">
       <t>ア</t>
@@ -929,14 +924,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム画面2(コスト3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム画面3(コスト3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
@@ -1062,10 +1049,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バグ発生中</t>
-  </si>
-  <si>
-    <t>完了</t>
+    <t>マップ設計1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアー演出</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ設計2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ設計3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ゲーム画面2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1338,7 +1350,24 @@
     <cellStyle name="アクセント 6" xfId="5" builtinId="49"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1349,7 +1378,24 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1377,6 +1423,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1384,7 +1437,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1666,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797CB909-86B9-4463-B23D-74EEE6CF1674}">
   <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1684,7 +1744,7 @@
       </c>
       <c r="C2">
         <f>SUM(作業効率見積もり!F3:F80)</f>
-        <v>56</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -1693,7 +1753,7 @@
       </c>
       <c r="C3">
         <f ca="1">SUMIF(作業効率見積もり!H3:H80,"完了",作業効率見積もり!F3:I7)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1709,7 +1769,7 @@
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
-        <v>8.8235294117647065E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1752,7 +1812,7 @@
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>2.7250000000000001</v>
+        <v>3.2250000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1769,7 +1829,7 @@
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.3625</v>
+        <v>1.6125</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1786,7 +1846,7 @@
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>1.0686274509803921</v>
+        <v>1.2647058823529411</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -1796,38 +1856,38 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C16">
         <f ca="1">SUMIF(作業効率見積もり!D3:D80,"S",作業効率見積もり!F3:I7)</f>
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="22" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C17">
         <f ca="1">SUMIF(作業効率見積もり!D3:D80,"A",作業効率見積もり!F3:I7)</f>
-        <v>2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C18">
         <f ca="1">SUMIF(作業効率見積もり!D3:D80,"B",作業効率見積もり!F3:I7)</f>
-        <v>1.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C19">
         <f ca="1">SUMIF(作業効率見積もり!D3:D80,"C",作業効率見積もり!F3:I7)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1841,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}">
   <dimension ref="B2:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1861,19 +1921,19 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>3</v>
@@ -1884,1367 +1944,1531 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F3" s="17">
         <v>1.5</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F4" s="17">
         <v>3</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F5" s="17">
         <v>0.5</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F6" s="17">
         <v>0.5</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F7" s="17">
         <v>0.5</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F8" s="17">
         <v>0.5</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F9" s="17">
         <v>0.5</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F10" s="17">
         <v>0.75</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F11" s="17">
         <v>0.5</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F12" s="17">
         <v>0.5</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F13" s="17">
         <v>0.25</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>118</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F14" s="17">
         <v>0.25</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F15" s="17">
         <v>0.25</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F16" s="17">
         <v>0.25</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F17" s="17">
         <v>0.25</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F18" s="17">
         <v>0.25</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F19" s="17">
         <v>0.5</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F20" s="17">
         <v>0.5</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>125</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F21" s="17">
         <v>0.5</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>145</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F22" s="17">
         <v>0.5</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>144</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F23" s="17">
         <v>0.5</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F24" s="17">
         <v>0.25</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>142</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F25" s="17">
         <v>0.5</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F26" s="17">
         <v>0.5</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F27" s="17">
         <v>0.5</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F28" s="17">
         <v>0.5</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F29" s="17">
         <v>0.5</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F30" s="17">
         <v>0.5</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F31" s="17">
         <v>0.25</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F32" s="17">
         <v>0.25</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F33" s="17">
         <v>0.25</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>140</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F34" s="17">
         <v>0.5</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>141</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F35" s="17">
         <v>0.5</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F36" s="17">
         <v>0.5</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="D37" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="F37" s="17">
         <v>2</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="D38" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F38" s="17">
         <v>2</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="D39" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F39" s="17">
         <v>2</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="D40" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F40" s="17">
         <v>4</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="D41" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="F41" s="17">
         <v>0.25</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
+      <c r="D42" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F42" s="17">
         <v>0.5</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="D43" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F43" s="17">
         <v>0.5</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
+      <c r="D44" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F44" s="17">
         <v>0.5</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="D45" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F45" s="17">
         <v>0.75</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="D46" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F46" s="17">
         <v>0.75</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
+      <c r="D47" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F47" s="17">
         <v>0.5</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="D48" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="F48" s="17">
         <v>0.5</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="D49" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F49" s="17">
         <v>0.5</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+        <v>211</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F50" s="17">
         <v>0.5</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+        <v>210</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="F51" s="17">
         <v>2.25</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
+        <v>212</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="F52" s="17">
         <v>2.25</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+        <v>213</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="17">
+        <v>2.25</v>
+      </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
+      <c r="D54" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F54" s="17">
         <v>2.25</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="D55" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="F55" s="17">
         <v>1.25</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="D56" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="17">
+        <v>1.25</v>
+      </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
+      <c r="D57" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="F57" s="17">
         <v>2.25</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="D58" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="F58" s="17">
         <v>1.25</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
+        <v>176</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="F59" s="17">
         <v>1.25</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
+        <v>177</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F60" s="17">
         <v>0.5</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
+        <v>178</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F61" s="17">
         <v>0.5</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+        <v>179</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F62" s="17">
         <v>0.5</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
+        <v>180</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F63" s="17">
         <v>0.5</v>
       </c>
       <c r="G63" s="17"/>
       <c r="H63" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+        <v>181</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="F64" s="17">
         <v>0.5</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
+        <v>182</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F65" s="17">
         <v>0.5</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+        <v>183</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>188</v>
+      </c>
       <c r="F66" s="17">
         <v>1.25</v>
       </c>
       <c r="G66" s="17"/>
       <c r="H66" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+        <v>215</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="17">
+        <v>1</v>
+      </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
+        <v>216</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F68" s="17">
+        <v>1</v>
+      </c>
       <c r="G68" s="17"/>
       <c r="H68" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="D69" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F69" s="17">
         <v>0.5</v>
       </c>
       <c r="G69" s="17"/>
       <c r="H69" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="D70" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F70" s="17">
         <v>0.5</v>
       </c>
       <c r="G70" s="17"/>
       <c r="H70" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
+      <c r="D71" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F71" s="17">
         <v>0.5</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
+      <c r="D72" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F72" s="17">
         <v>0.5</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
+      <c r="D73" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F73" s="17">
         <v>0.5</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
+      <c r="D74" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="F74" s="17">
         <v>0.5</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
+      <c r="D75" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="F75" s="17">
         <v>0.5</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="2:8">
@@ -3254,14 +3478,18 @@
       <c r="C76" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
+      <c r="D76" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F76" s="17">
         <v>0.5</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="2:8">
@@ -3271,14 +3499,18 @@
       <c r="C77" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
+      <c r="D77" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F77" s="17">
         <v>0.5</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="2:8">
@@ -3288,14 +3520,18 @@
       <c r="C78" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
+      <c r="D78" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F78" s="17">
         <v>0.5</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="2:8">
@@ -3305,48 +3541,59 @@
       <c r="C79" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="D79" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>190</v>
+      </c>
       <c r="F79" s="17">
         <v>0.5</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C80" s="7"/>
-      <c r="D80" s="17"/>
+      <c r="D80" s="17" t="s">
+        <v>191</v>
+      </c>
       <c r="E80" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="F80" s="17"/>
+        <v>189</v>
+      </c>
+      <c r="F80" s="17">
+        <v>3</v>
+      </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:H80" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$C3=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:H80">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$H3="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>$H3="バグ発生中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$H3="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$H3="バグ発生中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$H3="作業中"</formula>
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$H3="機能削除"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -3356,8 +3603,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D80" xr:uid="{63FF5DD3-50FC-403D-A1DC-E330178AE879}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H80" xr:uid="{68F1F4A1-27E7-45AE-AD87-35E3EA118C7B}">
-      <formula1>"未着手,作業中,バグ発生中,完了"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H80" xr:uid="{16EE4D6F-FAB2-4081-9FB7-C3677BDAEB05}">
+      <formula1>"未着手,作業中,バグ発生中,機能削除,完了"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3369,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3409,7 +3656,7 @@
       </c>
       <c r="H2">
         <f>SUM(C3:C91)</f>
-        <v>116.75</v>
+        <v>131.75</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3545,7 +3792,7 @@
       </c>
       <c r="J9" s="3">
         <f ca="1">($H$2 - $H$3) / I9</f>
-        <v>5.8375000000000004</v>
+        <v>6.5875000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3572,7 +3819,7 @@
       </c>
       <c r="J10" s="3">
         <f ca="1">($H$2 - $H$3) / I10</f>
-        <v>2.9187500000000002</v>
+        <v>3.2937500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3599,7 +3846,7 @@
       </c>
       <c r="J11" s="3">
         <f ca="1">($H$2 - $H$3) / I11</f>
-        <v>2.2892156862745097</v>
+        <v>2.5833333333333335</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4157,7 +4404,9 @@
       <c r="B60" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="7"/>
+      <c r="C60" s="7">
+        <v>6</v>
+      </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
         <v>7</v>
@@ -4191,7 +4440,9 @@
       <c r="B63" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="7"/>
+      <c r="C63" s="7">
+        <v>3</v>
+      </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
         <v>7</v>
@@ -4337,7 +4588,9 @@
       <c r="B76" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="7"/>
+      <c r="C76" s="7">
+        <v>3</v>
+      </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
         <v>7</v>
@@ -4347,7 +4600,9 @@
       <c r="B77" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="7"/>
+      <c r="C77" s="7">
+        <v>3</v>
+      </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
         <v>7</v>
@@ -4519,26 +4774,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a941b55e-93da-46ce-aa06-cdf502f284a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F99BFAA0B83A8F4C93558AE126794799" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9701ab53e3b575107903ae5d91f9bfac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a941b55e-93da-46ce-aa06-cdf502f284a4" xmlns:ns3="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179fc34737a7948d392d57a69f3d9b63" ns2:_="" ns3:_="">
     <xsd:import namespace="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
@@ -4739,10 +4974,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a941b55e-93da-46ce-aa06-cdf502f284a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BE2794-E616-4782-ACD4-BB50DF8286E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
+    <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4759,20 +5025,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BE2794-E616-4782-ACD4-BB50DF8286E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
-    <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/課題11月1から開始/喜遼_進捗コスト表.xlsx
+++ b/課題11月1から開始/喜遼_進捗コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石喜遼\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447030\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB4B06B-7290-41AF-86C4-9D2FCC1E692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E4A6AB-1FE3-4710-9C89-05144449A478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="360" windowWidth="38250" windowHeight="15285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業状況" sheetId="7" r:id="rId1"/>
@@ -1076,8 +1076,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未着手</t>
-    <phoneticPr fontId="1"/>
+    <t>完了</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1349,206 @@
     <cellStyle name="アクセント 6" xfId="5" builtinId="49"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEBF86E"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEBF86E"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6565"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1402,34 +1600,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1450,6 +1620,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEBF86E"/>
+      <color rgb="FFFF6565"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1727,7 +1903,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1753,7 +1929,7 @@
       </c>
       <c r="C3">
         <f ca="1">SUMIF(作業効率見積もり!H3:H80,"完了",作業効率見積もり!F3:I7)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1765,11 +1941,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1787,7 +1963,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1808,11 +1984,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>3.2250000000000001</v>
+        <v>3.1578947368421053</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1825,11 +2001,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.6125</v>
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1842,11 +2018,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>1.2647058823529411</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -1902,7 +2078,7 @@
   <dimension ref="B2:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1912,10 +2088,10 @@
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2166,7 +2342,7 @@
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -2187,7 +2363,7 @@
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -2208,7 +2384,7 @@
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -2229,7 +2405,7 @@
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -2250,7 +2426,7 @@
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -2264,14 +2440,14 @@
         <v>191</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" s="17">
         <v>0.25</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -2332,9 +2508,11 @@
       <c r="F21" s="17">
         <v>0.5</v>
       </c>
-      <c r="G21" s="17"/>
+      <c r="G21" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H21" s="17" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -2899,9 +3077,11 @@
       <c r="F48" s="17">
         <v>0.5</v>
       </c>
-      <c r="G48" s="17"/>
+      <c r="G48" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H48" s="17" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="2:8">
@@ -3027,7 +3207,7 @@
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="2:8">
@@ -3088,9 +3268,11 @@
       <c r="F57" s="17">
         <v>2.25</v>
       </c>
-      <c r="G57" s="17"/>
+      <c r="G57" s="17">
+        <v>1.5</v>
+      </c>
       <c r="H57" s="17" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="2:8">
@@ -3109,9 +3291,11 @@
       <c r="F58" s="17">
         <v>1.25</v>
       </c>
-      <c r="G58" s="17"/>
+      <c r="G58" s="17">
+        <v>1.25</v>
+      </c>
       <c r="H58" s="17" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="2:8">
@@ -3571,39 +3755,45 @@
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:H80" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$C3=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:H80">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$H3="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$H3="バグ発生中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$H3="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$H3="機能削除"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H3="中平"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E80" xr:uid="{DEF53051-3C63-4D14-AD01-861C95762F58}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D80" xr:uid="{63FF5DD3-50FC-403D-A1DC-E330178AE879}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H80" xr:uid="{16EE4D6F-FAB2-4081-9FB7-C3677BDAEB05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H5:H80" xr:uid="{16EE4D6F-FAB2-4081-9FB7-C3677BDAEB05}">
+      <formula1>"未着手,作業中,バグ発生中,機能削除,完了"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{BBE05398-E2F1-4622-B617-81B1209112F5}">
       <formula1>"未着手,作業中,バグ発生中,機能削除,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3616,7 +3806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
@@ -3697,7 +3887,7 @@
       </c>
       <c r="H4" s="2">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3">
         <f ca="1" xml:space="preserve"> H3/ H4</f>
@@ -3735,7 +3925,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45621</v>
+        <v>45622</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3788,11 +3978,11 @@
       </c>
       <c r="I9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="3">
         <f ca="1">($H$2 - $H$3) / I9</f>
-        <v>6.5875000000000004</v>
+        <v>6.9342105263157894</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3815,11 +4005,11 @@
       </c>
       <c r="I10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="3">
         <f ca="1">($H$2 - $H$3) / I10</f>
-        <v>3.2937500000000002</v>
+        <v>3.3782051282051282</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3842,11 +4032,11 @@
       </c>
       <c r="I11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="3">
         <f ca="1">($H$2 - $H$3) / I11</f>
-        <v>2.5833333333333335</v>
+        <v>2.6349999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4774,6 +4964,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a941b55e-93da-46ce-aa06-cdf502f284a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F99BFAA0B83A8F4C93558AE126794799" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9701ab53e3b575107903ae5d91f9bfac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a941b55e-93da-46ce-aa06-cdf502f284a4" xmlns:ns3="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179fc34737a7948d392d57a69f3d9b63" ns2:_="" ns3:_="">
     <xsd:import namespace="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
@@ -4974,27 +5184,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a941b55e-93da-46ce-aa06-cdf502f284a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
+    <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BE2794-E616-4782-ACD4-BB50DF8286E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5011,23 +5220,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
-    <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/課題11月1から開始/喜遼_進捗コスト表.xlsx
+++ b/課題11月1から開始/喜遼_進捗コスト表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447030\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E4A6AB-1FE3-4710-9C89-05144449A478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5FA24-2194-4D18-A045-2525DFBC2DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="11.25元データ" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業効率見積もり!$B$2:$H$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業効率見積もり!$B$2:$H$95</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="228">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -700,22 +700,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BOOS(コスト5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cpu3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cpu2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cpu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アニメーション実装</t>
     <rPh sb="7" eb="9">
       <t>ジッソウ</t>
@@ -857,9 +841,6 @@
     <t>プレイヤー</t>
   </si>
   <si>
-    <t>敵</t>
-  </si>
-  <si>
     <t>キャラクター</t>
   </si>
   <si>
@@ -1077,6 +1058,110 @@
   </si>
   <si>
     <t>完了</t>
+  </si>
+  <si>
+    <t>作業停止中</t>
+  </si>
+  <si>
+    <t>バグ発生中</t>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵1</t>
+  </si>
+  <si>
+    <t>敵1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵2</t>
+  </si>
+  <si>
+    <t>移動開始処理</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形態変化</t>
+    <rPh sb="0" eb="4">
+      <t>ケイタイヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形態変化後攻撃</t>
+    <rPh sb="0" eb="7">
+      <t>ケイタイヘンカゴコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出現演出</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形態変化後移動</t>
+    <rPh sb="0" eb="4">
+      <t>ケイタイヘンカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形態変化後移動</t>
+    <rPh sb="0" eb="2">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1349,24 +1434,7 @@
     <cellStyle name="アクセント 6" xfId="5" builtinId="49"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1392,13 +1460,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -1411,24 +1472,17 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFEBF86E"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF6565"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FF9751CB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1439,189 +1493,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9751CB"/>
       <color rgb="FFEBF86E"/>
       <color rgb="FFFF6565"/>
     </mruColors>
@@ -1900,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797CB909-86B9-4463-B23D-74EEE6CF1674}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:T25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1919,8 +1795,8 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <f>SUM(作業効率見積もり!F3:F80)</f>
-        <v>64.5</v>
+        <f>SUM(作業効率見積もり!F3:F95)</f>
+        <v>62.5</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -1928,7 +1804,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <f ca="1">SUMIF(作業効率見積もり!H3:H80,"完了",作業効率見積もり!F3:I7)</f>
+        <f ca="1">SUMIF(作業効率見積もり!H3:H95,"完了",作業効率見積もり!F3:I7)</f>
         <v>4.5</v>
       </c>
       <c r="D3" t="s">
@@ -1941,11 +1817,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
-        <v>0.25</v>
+        <v>0.23684210526315788</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1963,7 +1839,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1984,11 +1860,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>3.1578947368421053</v>
+        <v>3.2222222222222223</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -2001,11 +1877,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.5384615384615385</v>
+        <v>1.5263157894736843</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2018,11 +1894,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>1.2</v>
+        <v>1.1836734693877551</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2030,40 +1906,46 @@
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16">
-        <f ca="1">SUMIF(作業効率見積もり!D3:D80,"S",作業効率見積もり!F3:I7)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17">
-        <f ca="1">SUMIF(作業効率見積もり!D3:D80,"A",作業効率見積もり!F3:I7)</f>
+    <row r="17" spans="8:20">
+      <c r="T17">
+        <f ca="1">SUMIF(作業効率見積もり!H3:H95,"完了",作業効率見積もり!F3:I7)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="8:20">
+      <c r="H22" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22">
+        <f ca="1">SUMIF(作業効率見積もり!D3:D95,"S",作業効率見積もり!F3:I7)</f>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="23" spans="8:20">
+      <c r="H23" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23">
+        <f ca="1">SUMIF(作業効率見積もり!D3:D95,"A",作業効率見積もり!F3:I7)</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18">
-        <f ca="1">SUMIF(作業効率見積もり!D3:D80,"B",作業効率見積もり!F3:I7)</f>
+    <row r="24" spans="8:20">
+      <c r="H24" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24">
+        <f ca="1">SUMIF(作業効率見積もり!D3:D95,"B",作業効率見積もり!F3:I7)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19">
-        <f ca="1">SUMIF(作業効率見積もり!D3:D80,"C",作業効率見積もり!F3:I7)</f>
-        <v>5</v>
+    <row r="25" spans="8:20">
+      <c r="H25" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25">
+        <f ca="1">SUMIF(作業効率見積もり!D3:D95,"C",作業効率見積もり!F3:I7)</f>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -2075,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}">
-  <dimension ref="B2:H80"/>
+  <dimension ref="B2:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2087,7 +1969,8 @@
     <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" customWidth="1"/>
     <col min="10" max="10" width="9.25" customWidth="1"/>
     <col min="11" max="11" width="9.625" customWidth="1"/>
@@ -2097,19 +1980,19 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>3</v>
@@ -2120,390 +2003,422 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="17" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F3" s="17">
         <v>1.5</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
       <c r="H3" s="17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F4" s="17">
         <v>3</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
       <c r="H4" s="17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F5" s="17">
         <v>0.5</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="17">
+        <v>0.13</v>
+      </c>
       <c r="H5" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F6" s="17">
         <v>0.5</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="17">
+        <v>0.13</v>
+      </c>
       <c r="H6" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F7" s="17">
         <v>0.5</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17">
+        <v>0.13</v>
+      </c>
       <c r="H7" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F8" s="17">
         <v>0.5</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="17">
+        <v>0.13</v>
+      </c>
       <c r="H8" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F9" s="17">
         <v>0.5</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="17">
+        <v>0.13</v>
+      </c>
       <c r="H9" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F10" s="17">
         <v>0.75</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="17">
+        <v>0.13</v>
+      </c>
       <c r="H10" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F11" s="17">
         <v>0.5</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="17">
+        <v>0.13</v>
+      </c>
       <c r="H11" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F12" s="17">
         <v>0.5</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="17">
+        <v>0.13</v>
+      </c>
       <c r="H12" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F13" s="17">
         <v>0.25</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
       <c r="H13" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>118</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F14" s="17">
         <v>0.25</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
       <c r="H14" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F15" s="17">
         <v>0.25</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
       <c r="H15" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F16" s="17">
         <v>0.25</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
       <c r="H16" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F17" s="17">
         <v>0.25</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
       <c r="H17" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F18" s="17">
         <v>0.25</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H18" s="17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F19" s="17">
         <v>0.5</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F20" s="17">
         <v>0.5</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>125</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F21" s="17">
         <v>0.5</v>
@@ -2512,1289 +2427,1621 @@
         <v>0.25</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F22" s="17">
         <v>0.5</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H22" s="17" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F23" s="17">
         <v>0.5</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F24" s="17">
         <v>0.25</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F25" s="17">
         <v>0.5</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F26" s="17">
         <v>0.5</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F27" s="17">
         <v>0.5</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F28" s="17">
         <v>0.5</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F29" s="17">
         <v>0.5</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F30" s="17">
         <v>0.5</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F31" s="17">
         <v>0.25</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F32" s="17">
         <v>0.25</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F33" s="17">
         <v>0.25</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F34" s="17">
         <v>0.5</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F35" s="17">
         <v>0.5</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F36" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="12" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F37" s="17">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="12" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F38" s="17">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="12" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F39" s="17">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="12" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F40" s="17">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="12" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F41" s="17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="12" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F42" s="17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="12" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F43" s="17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="12" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F44" s="17">
         <v>0.5</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="12" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F45" s="17">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="12" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F46" s="17">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="12" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F47" s="17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="12" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F48" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="17">
-        <v>0.5</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="G48" s="17"/>
       <c r="H48" s="17" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="12" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F49" s="17">
         <v>0.5</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="12" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F50" s="17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="12" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F51" s="17">
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="12" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F52" s="17">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="12" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F53" s="17">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="12" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F54" s="17">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="12" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F55" s="17">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F56" s="17">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F57" s="17">
-        <v>2.25</v>
-      </c>
-      <c r="G57" s="17">
-        <v>1.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="17"/>
       <c r="H57" s="17" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F58" s="17">
-        <v>1.25</v>
-      </c>
-      <c r="G58" s="17">
-        <v>1.25</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="17"/>
       <c r="H58" s="17" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F59" s="17">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="G59" s="17"/>
       <c r="H59" s="17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F60" s="17">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F61" s="17">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F62" s="17">
         <v>0.5</v>
       </c>
       <c r="G62" s="17"/>
       <c r="H62" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F63" s="17">
         <v>0.5</v>
       </c>
-      <c r="G63" s="17"/>
+      <c r="G63" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H63" s="17" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F64" s="17">
         <v>0.5</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F65" s="17">
         <v>0.5</v>
       </c>
       <c r="G65" s="17"/>
       <c r="H65" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F66" s="17">
-        <v>1.25</v>
-      </c>
-      <c r="G66" s="17"/>
+        <v>2.25</v>
+      </c>
+      <c r="G66" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H66" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F67" s="17">
-        <v>1</v>
-      </c>
-      <c r="G67" s="17"/>
+        <v>2.25</v>
+      </c>
+      <c r="G67" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H67" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F68" s="17">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="G68" s="17"/>
       <c r="H68" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F69" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G69" s="17"/>
+        <v>2.25</v>
+      </c>
+      <c r="G69" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H69" s="17" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F70" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G70" s="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="G70" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H70" s="17" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F71" s="17">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F72" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G72" s="17"/>
+        <v>2.25</v>
+      </c>
+      <c r="G72" s="17">
+        <v>1.5</v>
+      </c>
       <c r="H72" s="17" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F73" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G73" s="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="G73" s="17">
+        <v>1.25</v>
+      </c>
       <c r="H73" s="17" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>151</v>
+        <v>166</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="F74" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G74" s="17"/>
+        <v>1.25</v>
+      </c>
+      <c r="G74" s="17">
+        <v>1</v>
+      </c>
       <c r="H74" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="F75" s="17">
         <v>0.5</v>
       </c>
       <c r="G75" s="17"/>
       <c r="H75" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="12" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F76" s="17">
         <v>0.5</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="12" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F77" s="17">
         <v>0.5</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="12" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F78" s="17">
         <v>0.5</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="12" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F79" s="17">
         <v>0.5</v>
       </c>
-      <c r="G79" s="17"/>
+      <c r="G79" s="17">
+        <v>0.01</v>
+      </c>
       <c r="H79" s="17" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C80" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="D80" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F80" s="17">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F82" s="17">
+        <v>1</v>
+      </c>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F83" s="17">
+        <v>1</v>
+      </c>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F84" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F85" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F88" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F89" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F90" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F91" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F92" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F93" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F94" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" s="17">
+        <v>3</v>
+      </c>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H80" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}"/>
+  <autoFilter ref="B2:H95" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$C3=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:H80">
-    <cfRule type="expression" dxfId="4" priority="3">
+  <conditionalFormatting sqref="B3:H95">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$H3="作業停止中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$H3="中平"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$H3="機能削除"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$H3="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$H3="バグ発生中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$H3="完了"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$H3="機能削除"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$H3="中平"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E80" xr:uid="{DEF53051-3C63-4D14-AD01-861C95762F58}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E95" xr:uid="{DEF53051-3C63-4D14-AD01-861C95762F58}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D80" xr:uid="{63FF5DD3-50FC-403D-A1DC-E330178AE879}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D95" xr:uid="{63FF5DD3-50FC-403D-A1DC-E330178AE879}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H5:H80" xr:uid="{16EE4D6F-FAB2-4081-9FB7-C3677BDAEB05}">
-      <formula1>"未着手,作業中,バグ発生中,機能削除,完了"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H95" xr:uid="{16EE4D6F-FAB2-4081-9FB7-C3677BDAEB05}">
+      <formula1>"未着手,作業中,作業停止中,バグ発生中,機能削除,完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{BBE05398-E2F1-4622-B617-81B1209112F5}">
-      <formula1>"未着手,作業中,バグ発生中,機能削除,完了"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F95" xr:uid="{77C2663D-68F6-4E5A-9B12-7B35694C6A92}">
+      <formula1>"0,0.25,0.5,0.75,1,1.25,1.5,1.75,2,2.25,2.5,2.75,3,3.25,3.5,3.75,4,4.25,4.5,4.75,5"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3887,7 +4134,7 @@
       </c>
       <c r="H4" s="2">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3">
         <f ca="1" xml:space="preserve"> H3/ H4</f>
@@ -3925,7 +4172,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45622</v>
+        <v>45623</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3978,11 +4225,11 @@
       </c>
       <c r="I9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="3">
         <f ca="1">($H$2 - $H$3) / I9</f>
-        <v>6.9342105263157894</v>
+        <v>7.3194444444444446</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4005,11 +4252,11 @@
       </c>
       <c r="I10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3">
         <f ca="1">($H$2 - $H$3) / I10</f>
-        <v>3.3782051282051282</v>
+        <v>3.4671052631578947</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4032,11 +4279,11 @@
       </c>
       <c r="I11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" s="3">
         <f ca="1">($H$2 - $H$3) / I11</f>
-        <v>2.6349999999999998</v>
+        <v>2.6887755102040818</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4964,26 +5211,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a941b55e-93da-46ce-aa06-cdf502f284a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F99BFAA0B83A8F4C93558AE126794799" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9701ab53e3b575107903ae5d91f9bfac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a941b55e-93da-46ce-aa06-cdf502f284a4" xmlns:ns3="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179fc34737a7948d392d57a69f3d9b63" ns2:_="" ns3:_="">
     <xsd:import namespace="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
@@ -5184,10 +5411,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a941b55e-93da-46ce-aa06-cdf502f284a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BE2794-E616-4782-ACD4-BB50DF8286E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
+    <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5204,20 +5462,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BE2794-E616-4782-ACD4-BB50DF8286E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
-    <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/課題11月1から開始/喜遼_進捗コスト表.xlsx
+++ b/課題11月1から開始/喜遼_進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447030\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5FA24-2194-4D18-A045-2525DFBC2DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3559381-018A-47E2-8193-BC022CB02546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業状況" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="11.25元データ" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業効率見積もり!$B$2:$H$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業効率見積もり!$B$2:$H$91</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,59 +39,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="232">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
   <si>
     <t>アルファ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>コスト</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>実コスト</t>
     <rPh sb="0" eb="1">
       <t>ジツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>判定</t>
     <rPh sb="0" eb="2">
       <t>ハンテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>総コスト</t>
     <rPh sb="0" eb="1">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・クラス設計</t>
     <rPh sb="4" eb="6">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>未完</t>
     <rPh sb="0" eb="2">
       <t>ミカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>消化コスト</t>
     <rPh sb="0" eb="2">
       <t>ショウカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>消費コスト / 日数</t>
@@ -101,14 +101,14 @@
     <rPh sb="8" eb="10">
       <t>ニッスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・ライブラリ設計</t>
     <rPh sb="6" eb="8">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>現在の日数(土日除く)</t>
@@ -124,7 +124,7 @@
     <rPh sb="8" eb="9">
       <t>ノゾ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・アルファ素材集め</t>
@@ -134,25 +134,25 @@
     <rPh sb="7" eb="8">
       <t>アツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>開始日</t>
     <rPh sb="0" eb="3">
       <t>カイシビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　UI素材</t>
     <rPh sb="5" eb="7">
       <t>ソザイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>未完</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>今日の日付</t>
@@ -162,15 +162,15 @@
     <rPh sb="3" eb="5">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　SE</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　BGM</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>残り日数(土日除く)</t>
@@ -186,7 +186,7 @@
     <rPh sb="7" eb="8">
       <t>ノゾ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>一日の消費コスト</t>
@@ -196,36 +196,36 @@
     <rPh sb="3" eb="5">
       <t>ショウヒ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　マップ素材</t>
     <rPh sb="6" eb="8">
       <t>ソザイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>理想</t>
     <rPh sb="0" eb="2">
       <t>リソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　エフェクト</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>デッドライン</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>真実のデッドライン</t>
     <rPh sb="0" eb="2">
       <t>シンジツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　アイテム</t>
@@ -241,7 +241,7 @@
     <rPh sb="4" eb="6">
       <t>ハンテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　－　球と球の当たり判定</t>
@@ -263,26 +263,26 @@
   </si>
   <si>
     <t>・プレイヤー</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　―　待機</t>
     <rPh sb="3" eb="5">
       <t>タイキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　―　移動</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　―　ジャンプ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　―　ダッシュ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　－　攻撃(踏みつける)</t>
@@ -310,33 +310,33 @@
     <rPh sb="3" eb="5">
       <t>シボウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　－　アニメーション実装</t>
     <rPh sb="10" eb="12">
       <t>ジッソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・敵</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　BOOS(コスト5)</t>
   </si>
   <si>
     <t>・キャラクター</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　―　キャラ１</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　―　キャラ２</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　―　キャラ３</t>
@@ -349,14 +349,14 @@
     <rPh sb="8" eb="10">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　再生</t>
     <rPh sb="3" eb="5">
       <t>サイセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　再生速度調整</t>
@@ -369,11 +369,11 @@
     <rPh sb="7" eb="9">
       <t>チョウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・カメラ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　移動ステージ選択</t>
@@ -389,7 +389,7 @@
   </si>
   <si>
     <t>・マップ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　－　マップ設計1</t>
@@ -411,11 +411,11 @@
     <rPh sb="1" eb="4">
       <t>オトショリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　BGM再生</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　SE再生</t>
@@ -428,11 +428,11 @@
   </si>
   <si>
     <t>・UI</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　タイトル画面</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　ステージセレクト画面</t>
@@ -448,11 +448,11 @@
   </si>
   <si>
     <t>　ー　オプション画面</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・UX</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　カーソル移動</t>
@@ -486,7 +486,7 @@
   </si>
   <si>
     <t>・ビルドテスト</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　キャラ(敵含む)</t>
@@ -496,34 +496,34 @@
     <rPh sb="8" eb="9">
       <t>フク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　ゲーム画面1</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　―　ステータス(残りストック)</t>
     <rPh sb="9" eb="10">
       <t>ノコ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　－　被弾1</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　－　被弾2</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　－　被弾3</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　ー　配置データの保存</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　－　ステージ選択画面コスト５</t>
@@ -533,63 +533,63 @@
     <rPh sb="9" eb="11">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　－　タイトル</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　－　オプション</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　―　cpu</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　―　cpu2</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　―　cpu3</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>　判定　</t>
     <rPh sb="1" eb="3">
       <t>ハンテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>UI素材</t>
     <rPh sb="2" eb="4">
       <t>ソザイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>SE</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BGM</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>マップ素材</t>
     <rPh sb="3" eb="5">
       <t>ソザイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>エフェクト</t>
   </si>
   <si>
     <t>エフェクト</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>キャラ(敵含む)</t>
@@ -599,69 +599,69 @@
     <rPh sb="5" eb="6">
       <t>フク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アイテム</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>弾(その他)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>球と球の当たり判定</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>球と短形の当たり判定</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>球とマップの当たり判定</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>短形と球の当たり判定</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>短形と短形の当たり判定</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>短形とマップの当たり判定</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ステータス(残りストック)</t>
     <rPh sb="6" eb="7">
       <t>ノコ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>待機</t>
     <rPh sb="0" eb="2">
       <t>タイキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>移動</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ゲーム演出</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ゲームシーン</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>移動ステージ選択</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>再生速度調整</t>
@@ -674,124 +674,108 @@
     <rPh sb="4" eb="6">
       <t>チョウセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>再生</t>
     <rPh sb="0" eb="2">
       <t>サイセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラ４</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラ３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラ２</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラ１</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アニメーション実装</t>
     <rPh sb="7" eb="9">
       <t>ジッソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>持つ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>死亡</t>
     <rPh sb="0" eb="2">
       <t>シボウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>攻撃(投げる)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>攻撃(踏みつける)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ダッシュ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ジャンプ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>座標回転と拡大</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>エフェクト実装</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>エフェクト停止</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>エフェクト再生</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>カメラ操作</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>プレイヤー操作</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>画面遷移</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>決定処理</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>カーソル移動</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>オプション画面</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アニメーション画面</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>配置データの読み込み</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>配置データの保存</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>オプション</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ステージ選択画面コスト５</t>
@@ -801,7 +785,7 @@
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>当たり判定</t>
@@ -811,7 +795,7 @@
     <rPh sb="3" eb="5">
       <t>ハンテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アルファ素材集め</t>
@@ -821,34 +805,31 @@
     <rPh sb="6" eb="7">
       <t>アツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>クラス設計</t>
     <rPh sb="3" eb="5">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ライブラリ設計</t>
     <rPh sb="5" eb="7">
       <t>セッケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>プレイヤー</t>
-  </si>
-  <si>
-    <t>キャラクター</t>
   </si>
   <si>
     <t>アニメーション処理</t>
     <rPh sb="7" eb="9">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>カメラ</t>
@@ -861,7 +842,7 @@
     <rPh sb="0" eb="3">
       <t>オトショリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>UI</t>
@@ -874,53 +855,53 @@
   </si>
   <si>
     <t>マップ実装</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BGM再生</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>SE再生</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>音量調整の処理</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>音実装</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>タイトル画面</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ステージセレクト画面</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ゲーム画面1</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>詳細</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>優先度</t>
     <rPh sb="0" eb="3">
       <t>ユウセンド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>バージョン</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>プロト</t>
@@ -945,7 +926,7 @@
   </si>
   <si>
     <t>変化(キノコ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>変化(炎花)</t>
@@ -955,7 +936,7 @@
     <rPh sb="4" eb="5">
       <t>ハナ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>変化(氷花)</t>
@@ -965,33 +946,33 @@
     <rPh sb="4" eb="5">
       <t>ハナ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>攻撃(炎花,放つ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>攻撃(氷花,放つ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>被弾(キノコ→元)</t>
     <rPh sb="7" eb="8">
       <t>モト</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>被弾(炎花→キノコ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>被弾(氷花→キノコ)</t>
     <rPh sb="3" eb="4">
       <t>コオリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>未着手</t>
@@ -1004,87 +985,84 @@
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>作業工数</t>
     <rPh sb="0" eb="4">
       <t>サギョウコウスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>マップ設計1</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>クリアー演出</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>マップ設計2</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>マップ設計3</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
     <t>ゲーム画面2</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ゲーム画面3</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>完了</t>
   </si>
   <si>
     <t>作業停止中</t>
-  </si>
-  <si>
-    <t>バグ発生中</t>
   </si>
   <si>
     <t>移動</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>攻撃</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>敵1</t>
   </si>
   <si>
     <t>敵1</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>敵2</t>
@@ -1100,29 +1078,29 @@
     <rPh sb="4" eb="6">
       <t>ショリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>BOOS</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>形態変化</t>
     <rPh sb="0" eb="4">
       <t>ケイタイヘンカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>形態変化後攻撃</t>
     <rPh sb="0" eb="7">
       <t>ケイタイヘンカゴコウゲキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>未着手</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>出現演出</t>
@@ -1132,7 +1110,7 @@
     <rPh sb="2" eb="4">
       <t>エンシュツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>形態変化後移動</t>
@@ -1145,7 +1123,7 @@
     <rPh sb="5" eb="7">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>形態変化後移動</t>
@@ -1161,7 +1139,50 @@
     <rPh sb="5" eb="7">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>α</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>β</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全て</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業中</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業停止中</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バグ発生中</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1172,12 +1193,20 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1220,8 +1249,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1307,6 +1350,66 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6565"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81EF8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9B1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FA6D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDE46B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1373,60 +1476,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="14" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="5" fillId="14" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="4" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="4" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="4" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="11">
+    <cellStyle name="20% - アクセント 1" xfId="6" builtinId="30"/>
+    <cellStyle name="20% - アクセント 2" xfId="7" builtinId="34"/>
+    <cellStyle name="20% - アクセント 4" xfId="8" builtinId="42"/>
+    <cellStyle name="20% - アクセント 5" xfId="9" builtinId="46"/>
+    <cellStyle name="20% - アクセント 6" xfId="10" builtinId="50"/>
     <cellStyle name="アクセント 1" xfId="2" builtinId="29"/>
     <cellStyle name="アクセント 2" xfId="3" builtinId="33"/>
     <cellStyle name="アクセント 4" xfId="4" builtinId="41"/>
@@ -1497,9 +1636,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8FA6D9"/>
+      <color rgb="FFDE46B3"/>
+      <color rgb="FFF7F9B1"/>
+      <color rgb="FFFBFCD6"/>
+      <color rgb="FF81EF8B"/>
+      <color rgb="FFFF6565"/>
       <color rgb="FF9751CB"/>
       <color rgb="FFEBF86E"/>
-      <color rgb="FFFF6565"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1511,6 +1655,1032 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5A2C-4DE0-A816-891410AAFD2C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5A2C-4DE0-A816-891410AAFD2C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5A2C-4DE0-A816-891410AAFD2C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5A2C-4DE0-A816-891410AAFD2C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5A2C-4DE0-A816-891410AAFD2C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-5A2C-4DE0-A816-891410AAFD2C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>作業状況!$I$3:$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>未完</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>作業中</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>作業停止中</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>バグ発生中</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>機能削除</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>完了</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>作業状況!$I$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B916-482E-BEF3-104E40B381D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3C8FBA-F3C8-4A7B-B29D-0B8E54612943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1776,10 +2946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797CB909-86B9-4463-B23D-74EEE6CF1674}">
-  <dimension ref="B2:T25"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1788,43 +2958,94 @@
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:14">
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <f>SUM(作業効率見積もり!F3:F95)</f>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+        <f>SUM(作業効率見積もり!F3:F91)</f>
+        <v>60.75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <f ca="1">SUMIF(作業効率見積もり!H3:H95,"完了",作業効率見積もり!F3:I7)</f>
-        <v>4.5</v>
+        <f>SUMIF(作業効率見積もり!H3:H91,"完了",作業効率見積もり!F3:F91)</f>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
       <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
-        <v>0.23684210526315788</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="30">
+        <f>SUM(作業効率見積もり!F3:F91)</f>
+        <v>60.75</v>
+      </c>
+      <c r="J4" s="30">
+        <f>SUMIF(作業効率見積もり!H3:H91,"作業中",作業効率見積もり!F3:F91)</f>
+        <v>10.5</v>
+      </c>
+      <c r="K4" s="30">
+        <f>SUMIF(作業効率見積もり!H3:H91,"作業停止中",作業効率見積もり!F3:F91)</f>
+        <v>9.5</v>
+      </c>
+      <c r="L4" s="30">
+        <f>SUMIF(作業効率見積もり!H3:H91,"バグ発生中",作業効率見積もり!F3:F91)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="30">
+        <f>SUMIF(作業効率見積もり!H3:H91,"機能削除",作業効率見積もり!F3:F91)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="30">
+        <f>SUMIF(作業効率見積もり!H3:H91,"完了",作業効率見積もり!F3:F91)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1832,25 +3053,75 @@
         <f>DATE(2024,11,1)</f>
         <v>45597</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="H5" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="31">
+        <f>SUMIF(作業効率見積もり!E3:E91,"プロト",作業効率見積もり!F3:F91)</f>
+        <v>15.5</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="6" spans="2:14">
       <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45623</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>45624</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="30">
+        <f>SUMIF(作業効率見積もり!E3:E91,"α",作業効率見積もり!F3:F91)</f>
+        <v>21</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="H7" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" s="30">
+        <f>SUMIF(作業効率見積もり!E3:E91,"β",作業効率見積もり!F3:F91)</f>
+        <v>21.25</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+    </row>
+    <row r="8" spans="2:14">
       <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="H8" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="30">
+        <f>SUMIF(作業効率見積もり!E3:E91,"マスター",作業効率見積もり!F3:F91)</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
@@ -1860,14 +3131,14 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>3.2222222222222223</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+        <v>3.2794117647058822</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
@@ -1877,14 +3148,14 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.5263157894736843</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+        <v>1.5067567567567568</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="11" t="s">
         <v>25</v>
       </c>
@@ -1894,73 +3165,68 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>1.1836734693877551</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+        <v>1.1614583333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="8:20">
-      <c r="T17">
-        <f ca="1">SUMIF(作業効率見積もり!H3:H95,"完了",作業効率見積もり!F3:I7)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="22" spans="8:20">
-      <c r="H22" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="I22">
-        <f ca="1">SUMIF(作業効率見積もり!D3:D95,"S",作業効率見積もり!F3:I7)</f>
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="23" spans="8:20">
-      <c r="H23" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="I23">
-        <f ca="1">SUMIF(作業効率見積もり!D3:D95,"A",作業効率見積もり!F3:I7)</f>
+    <row r="14" spans="2:14">
+      <c r="B14" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14">
+        <f>SUMIF(作業効率見積もり!D3:D91,"S",作業効率見積もり!F3:F91)</f>
+        <v>44.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15">
+        <f>SUMIF(作業効率見積もり!D3:D91,"A",作業効率見積もり!F3:F91)</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="24" spans="8:20">
-      <c r="H24" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="I24">
-        <f ca="1">SUMIF(作業効率見積もり!D3:D95,"B",作業効率見積もり!F3:I7)</f>
+    <row r="16" spans="2:14">
+      <c r="B16" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16">
+        <f>SUMIF(作業効率見積もり!D3:D91,"B",作業効率見積もり!F3:F91)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="8:20">
-      <c r="H25" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I25">
-        <f ca="1">SUMIF(作業効率見積もり!D3:D95,"C",作業効率見積もり!F3:I7)</f>
-        <v>4.5</v>
+    <row r="17" spans="2:3">
+      <c r="B17" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17">
+        <f>SUMIF(作業効率見積もり!D3:D91,"C",作業効率見積もり!F3:F91)</f>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}">
-  <dimension ref="B2:H95"/>
+  <dimension ref="B2:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1980,19 +3246,19 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>3</v>
@@ -2003,14 +3269,14 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F3" s="17">
         <v>1.5</v>
@@ -2019,19 +3285,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F4" s="17">
         <v>3</v>
@@ -2040,21 +3306,21 @@
         <v>1</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F5" s="17">
         <v>0.5</v>
@@ -2063,21 +3329,21 @@
         <v>0.13</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F6" s="17">
         <v>0.5</v>
@@ -2086,21 +3352,21 @@
         <v>0.13</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F7" s="17">
         <v>0.5</v>
@@ -2109,21 +3375,21 @@
         <v>0.13</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F8" s="17">
         <v>0.5</v>
@@ -2132,21 +3398,21 @@
         <v>0.13</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F9" s="17">
         <v>0.5</v>
@@ -2154,22 +3420,22 @@
       <c r="G9" s="17">
         <v>0.13</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>213</v>
+      <c r="H9" s="33" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F10" s="17">
         <v>0.75</v>
@@ -2178,21 +3444,21 @@
         <v>0.13</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F11" s="17">
         <v>0.5</v>
@@ -2201,21 +3467,21 @@
         <v>0.13</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F12" s="17">
         <v>0.5</v>
@@ -2224,21 +3490,21 @@
         <v>0.13</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F13" s="17">
         <v>0.25</v>
@@ -2247,21 +3513,21 @@
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>118</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F14" s="17">
         <v>0.25</v>
@@ -2270,21 +3536,21 @@
         <v>0</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F15" s="17">
         <v>0.25</v>
@@ -2293,21 +3559,21 @@
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F16" s="17">
         <v>0.25</v>
@@ -2316,21 +3582,21 @@
         <v>0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F17" s="17">
         <v>0.25</v>
@@ -2339,21 +3605,21 @@
         <v>0</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F18" s="17">
         <v>0.25</v>
@@ -2362,63 +3628,63 @@
         <v>0.25</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F19" s="17">
         <v>0.5</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F20" s="17">
         <v>0.5</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>125</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F21" s="17">
         <v>0.5</v>
@@ -2427,21 +3693,21 @@
         <v>0.25</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F22" s="17">
         <v>0.5</v>
@@ -2450,1567 +3716,1483 @@
         <v>0.25</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F23" s="17">
         <v>0.5</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F24" s="17">
         <v>0.25</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F25" s="17">
         <v>0.5</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F26" s="17">
         <v>0.5</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F27" s="17">
         <v>0.5</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F28" s="17">
         <v>0.5</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F29" s="17">
         <v>0.5</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F30" s="17">
         <v>0.5</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F31" s="17">
         <v>0.25</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F32" s="17">
         <v>0.25</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F33" s="17">
         <v>0.25</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F34" s="17">
         <v>0.5</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F35" s="17">
         <v>0.5</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F36" s="17">
         <v>1</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F37" s="17">
         <v>0.5</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F38" s="17">
         <v>0.25</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F39" s="17">
         <v>0.25</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F40" s="17">
         <v>0.25</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F41" s="17">
         <v>0.5</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F42" s="17">
         <v>0.25</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F43" s="17">
         <v>0.25</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F44" s="17">
         <v>0.5</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F45" s="17">
         <v>0.5</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F46" s="17">
         <v>0.5</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F47" s="17">
         <v>0.25</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F48" s="17">
         <v>0.75</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F49" s="17">
         <v>0.5</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F50" s="17">
         <v>0.25</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F51" s="17">
         <v>0.25</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F52" s="17">
         <v>0.5</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="D53" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F53" s="17">
         <v>0.5</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F54" s="17">
         <v>0.5</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F55" s="17">
         <v>0.25</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F56" s="17">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F57" s="17">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F58" s="17">
         <v>0.5</v>
       </c>
       <c r="G58" s="17"/>
       <c r="H58" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F59" s="17">
         <v>0.5</v>
       </c>
-      <c r="G59" s="17"/>
+      <c r="G59" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H59" s="17" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F60" s="17">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F61" s="17">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G61" s="17"/>
       <c r="H61" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F62" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G62" s="17"/>
+        <v>2.25</v>
+      </c>
+      <c r="G62" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H62" s="17" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F63" s="17">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="G63" s="17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F64" s="17">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="G64" s="17"/>
       <c r="H64" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F65" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G65" s="17"/>
+        <v>2.25</v>
+      </c>
+      <c r="G65" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H65" s="17" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F66" s="17">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="G66" s="17">
         <v>0.25</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F67" s="17">
-        <v>2.25</v>
-      </c>
-      <c r="G67" s="17">
-        <v>0.25</v>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="G67" s="17"/>
       <c r="H67" s="17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F68" s="17">
         <v>2.25</v>
       </c>
-      <c r="G68" s="17"/>
+      <c r="G68" s="17">
+        <v>1.5</v>
+      </c>
       <c r="H68" s="17" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F69" s="17">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="G69" s="17">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="D70" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F70" s="17">
         <v>1.25</v>
       </c>
       <c r="G70" s="17">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F71" s="17">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="G71" s="17"/>
       <c r="H71" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F72" s="17">
-        <v>2.25</v>
-      </c>
-      <c r="G72" s="17">
-        <v>1.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="17"/>
       <c r="H72" s="17" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F73" s="17">
-        <v>1.25</v>
-      </c>
-      <c r="G73" s="17">
-        <v>1.25</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G73" s="17"/>
       <c r="H73" s="17" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F74" s="17">
-        <v>1.25</v>
-      </c>
-      <c r="G74" s="17">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="17"/>
       <c r="H74" s="17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F75" s="17">
         <v>0.5</v>
       </c>
-      <c r="G75" s="17"/>
+      <c r="G75" s="17">
+        <v>0.01</v>
+      </c>
       <c r="H75" s="17" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F76" s="17">
         <v>0.5</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F77" s="17">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F78" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F79" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G79" s="17">
-        <v>0.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G79" s="17"/>
       <c r="H79" s="17" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F80" s="17">
         <v>0.5</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F81" s="17">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F82" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F83" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G83" s="17"/>
       <c r="H83" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F84" s="17">
         <v>0.5</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="F85" s="17">
         <v>0.5</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="F86" s="17">
         <v>0.5</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="12" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F87" s="17">
         <v>0.5</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="12" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F88" s="17">
         <v>0.5</v>
       </c>
       <c r="G88" s="17"/>
       <c r="H88" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>147</v>
+        <v>112</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="F89" s="17">
         <v>0.5</v>
       </c>
       <c r="G89" s="17"/>
       <c r="H89" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="12" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="F90" s="17">
         <v>0.5</v>
       </c>
       <c r="G90" s="17"/>
       <c r="H90" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>145</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C91" s="7"/>
       <c r="D91" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F91" s="17">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F92" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F93" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="F94" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="F95" s="17">
-        <v>3</v>
-      </c>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H95" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}"/>
-  <phoneticPr fontId="1"/>
+  <autoFilter ref="B2:H91" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}"/>
+  <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="H4">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>$C3=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:H95">
+  <conditionalFormatting sqref="B3:H91">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>$H3="作業停止中"</formula>
     </cfRule>
@@ -4031,16 +5213,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E95" xr:uid="{DEF53051-3C63-4D14-AD01-861C95762F58}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E91" xr:uid="{DEF53051-3C63-4D14-AD01-861C95762F58}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D95" xr:uid="{63FF5DD3-50FC-403D-A1DC-E330178AE879}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D91" xr:uid="{63FF5DD3-50FC-403D-A1DC-E330178AE879}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H95" xr:uid="{16EE4D6F-FAB2-4081-9FB7-C3677BDAEB05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H91" xr:uid="{16EE4D6F-FAB2-4081-9FB7-C3677BDAEB05}">
       <formula1>"未着手,作業中,作業停止中,バグ発生中,機能削除,完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F95" xr:uid="{77C2663D-68F6-4E5A-9B12-7B35694C6A92}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F91" xr:uid="{77C2663D-68F6-4E5A-9B12-7B35694C6A92}">
       <formula1>"0,0.25,0.5,0.75,1,1.25,1.5,1.75,2,2.25,2.5,2.75,3,3.25,3.5,3.75,4,4.25,4.5,4.75,5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4134,7 +5316,7 @@
       </c>
       <c r="H4" s="2">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3">
         <f ca="1" xml:space="preserve"> H3/ H4</f>
@@ -4172,7 +5354,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45623</v>
+        <v>45624</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4225,11 +5407,11 @@
       </c>
       <c r="I9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="3">
         <f ca="1">($H$2 - $H$3) / I9</f>
-        <v>7.3194444444444446</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4252,11 +5434,11 @@
       </c>
       <c r="I10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="3">
         <f ca="1">($H$2 - $H$3) / I10</f>
-        <v>3.4671052631578947</v>
+        <v>3.560810810810811</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4279,11 +5461,11 @@
       </c>
       <c r="I11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="3">
         <f ca="1">($H$2 - $H$3) / I11</f>
-        <v>2.6887755102040818</v>
+        <v>2.7447916666666665</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5204,7 +6386,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/課題11月1から開始/喜遼_進捗コスト表.xlsx
+++ b/課題11月1から開始/喜遼_進捗コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447030\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石喜遼\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3559381-018A-47E2-8193-BC022CB02546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7319F5AA-3872-4215-80A3-87EE37F9A8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="195" windowWidth="38250" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業状況" sheetId="7" r:id="rId1"/>
@@ -1942,7 +1942,7 @@
                   <c:v>60.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.5</c:v>
@@ -1954,7 +1954,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="C3">
         <f>SUMIF(作業効率見積もり!H3:H91,"完了",作業効率見積もり!F3:F91)</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -3011,11 +3011,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
-        <v>0.25</v>
+        <v>0.27173913043478259</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>226</v>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="J4" s="30">
         <f>SUMIF(作業効率見積もり!H3:H91,"作業中",作業効率見積もり!F3:F91)</f>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K4" s="30">
         <f>SUMIF(作業効率見積もり!H3:H91,"作業停止中",作業効率見積もり!F3:F91)</f>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="N4" s="30">
         <f>SUMIF(作業効率見積もり!H3:H91,"完了",作業効率見積もり!F3:F91)</f>
-        <v>5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="I5" s="31">
         <f>SUMIF(作業効率見積もり!E3:E91,"プロト",作業効率見積もり!F3:F91)</f>
-        <v>15.5</v>
+        <v>16.25</v>
       </c>
       <c r="J5" s="32"/>
       <c r="K5" s="30"/>
@@ -3072,14 +3072,14 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45624</v>
+        <v>45629</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>223</v>
       </c>
       <c r="I6" s="30">
         <f>SUMIF(作業効率見積もり!E3:E91,"α",作業効率見積もり!F3:F91)</f>
-        <v>21</v>
+        <v>20.25</v>
       </c>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
@@ -3131,11 +3131,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>3.2794117647058822</v>
+        <v>3.8928571428571428</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -3148,11 +3148,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.5067567567567568</v>
+        <v>1.6029411764705883</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -3165,11 +3165,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>1.1614583333333333</v>
+        <v>1.211111111111111</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -3225,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}">
   <dimension ref="B2:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4024,14 +4024,14 @@
         <v>181</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F37" s="17">
         <v>0.5</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -4045,14 +4045,14 @@
         <v>181</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F38" s="17">
         <v>0.25</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="2:8">
@@ -4740,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="2:8">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H4" s="2">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3">
         <f ca="1" xml:space="preserve"> H3/ H4</f>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45624</v>
+        <v>45629</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5407,11 +5407,11 @@
       </c>
       <c r="I9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" s="3">
         <f ca="1">($H$2 - $H$3) / I9</f>
-        <v>7.75</v>
+        <v>9.4107142857142865</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5434,11 +5434,11 @@
       </c>
       <c r="I10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J10" s="3">
         <f ca="1">($H$2 - $H$3) / I10</f>
-        <v>3.560810810810811</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5461,11 +5461,11 @@
       </c>
       <c r="I11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J11" s="3">
         <f ca="1">($H$2 - $H$3) / I11</f>
-        <v>2.7447916666666665</v>
+        <v>2.9277777777777776</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6393,6 +6393,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a941b55e-93da-46ce-aa06-cdf502f284a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F99BFAA0B83A8F4C93558AE126794799" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9701ab53e3b575107903ae5d91f9bfac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a941b55e-93da-46ce-aa06-cdf502f284a4" xmlns:ns3="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179fc34737a7948d392d57a69f3d9b63" ns2:_="" ns3:_="">
     <xsd:import namespace="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
@@ -6593,27 +6613,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a941b55e-93da-46ce-aa06-cdf502f284a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
+    <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BE2794-E616-4782-ACD4-BB50DF8286E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6630,23 +6649,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
-    <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/課題11月1から開始/喜遼_進捗コスト表.xlsx
+++ b/課題11月1から開始/喜遼_進捗コスト表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\立石喜遼\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447030\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7319F5AA-3872-4215-80A3-87EE37F9A8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BBB355-F25B-4E60-8B3B-B12D7B35D2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="195" windowWidth="38250" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業状況" sheetId="7" r:id="rId1"/>
@@ -1942,7 +1942,7 @@
                   <c:v>60.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>9.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.5</c:v>
@@ -1954,7 +1954,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.25</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2948,7 +2948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797CB909-86B9-4463-B23D-74EEE6CF1674}">
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="C3">
         <f>SUMIF(作業効率見積もり!H3:H91,"完了",作業効率見積もり!F3:F91)</f>
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -3011,11 +3011,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
-        <v>0.27173913043478259</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>226</v>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="J4" s="30">
         <f>SUMIF(作業効率見積もり!H3:H91,"作業中",作業効率見積もり!F3:F91)</f>
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="K4" s="30">
         <f>SUMIF(作業効率見積もり!H3:H91,"作業停止中",作業効率見積もり!F3:F91)</f>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="N4" s="30">
         <f>SUMIF(作業効率見積もり!H3:H91,"完了",作業効率見積もり!F3:F91)</f>
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>223</v>
@@ -3131,11 +3131,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>3.8928571428571428</v>
+        <v>4.1730769230769234</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -3148,11 +3148,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.6029411764705883</v>
+        <v>1.643939393939394</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -3165,11 +3165,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>1.211111111111111</v>
+        <v>1.2329545454545454</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -3223,10 +3223,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3309,7 +3310,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" hidden="1">
       <c r="B5" s="12" t="s">
         <v>155</v>
       </c>
@@ -3332,7 +3333,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" hidden="1">
       <c r="B6" s="12" t="s">
         <v>155</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" hidden="1">
       <c r="B7" s="12" t="s">
         <v>155</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" hidden="1">
       <c r="B8" s="12" t="s">
         <v>155</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" hidden="1">
       <c r="B9" s="12" t="s">
         <v>155</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" hidden="1">
       <c r="B10" s="12" t="s">
         <v>155</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" hidden="1">
       <c r="B11" s="12" t="s">
         <v>155</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" hidden="1">
       <c r="B12" s="12" t="s">
         <v>155</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" hidden="1">
       <c r="B13" s="12" t="s">
         <v>154</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" hidden="1">
       <c r="B14" s="12" t="s">
         <v>154</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" hidden="1">
       <c r="B15" s="12" t="s">
         <v>154</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" hidden="1">
       <c r="B16" s="12" t="s">
         <v>154</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" hidden="1">
       <c r="B17" s="12" t="s">
         <v>154</v>
       </c>
@@ -3628,10 +3629,10 @@
         <v>0.25</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" hidden="1">
       <c r="B19" s="12" t="s">
         <v>158</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" hidden="1">
       <c r="B20" s="12" t="s">
         <v>158</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" hidden="1">
       <c r="B23" s="12" t="s">
         <v>158</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" hidden="1">
       <c r="B24" s="12" t="s">
         <v>158</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" hidden="1">
       <c r="B25" s="12" t="s">
         <v>158</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" hidden="1">
       <c r="B26" s="12" t="s">
         <v>158</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" hidden="1">
       <c r="B27" s="12" t="s">
         <v>158</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" hidden="1">
       <c r="B28" s="12" t="s">
         <v>158</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" hidden="1">
       <c r="B29" s="12" t="s">
         <v>158</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" hidden="1">
       <c r="B30" s="12" t="s">
         <v>158</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" hidden="1">
       <c r="B31" s="12" t="s">
         <v>158</v>
       </c>
@@ -3908,7 +3909,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" hidden="1">
       <c r="B32" s="12" t="s">
         <v>158</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" hidden="1">
       <c r="B33" s="12" t="s">
         <v>158</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" hidden="1">
       <c r="B34" s="12" t="s">
         <v>158</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" hidden="1">
       <c r="B35" s="12" t="s">
         <v>158</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" hidden="1">
       <c r="B36" s="12" t="s">
         <v>158</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" hidden="1">
       <c r="B39" s="12" t="s">
         <v>211</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" hidden="1">
       <c r="B40" s="12" t="s">
         <v>211</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" hidden="1">
       <c r="B41" s="12" t="s">
         <v>213</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" hidden="1">
       <c r="B42" s="12" t="s">
         <v>213</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" hidden="1">
       <c r="B43" s="12" t="s">
         <v>213</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" hidden="1">
       <c r="B44" s="12" t="s">
         <v>213</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" hidden="1">
       <c r="B45" s="12" t="s">
         <v>213</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" hidden="1">
       <c r="B46" s="12" t="s">
         <v>213</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" hidden="1">
       <c r="B47" s="12" t="s">
         <v>213</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" hidden="1">
       <c r="B48" s="12" t="s">
         <v>215</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" hidden="1">
       <c r="B49" s="12" t="s">
         <v>215</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" hidden="1">
       <c r="B50" s="12" t="s">
         <v>215</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" hidden="1">
       <c r="B51" s="12" t="s">
         <v>215</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" hidden="1">
       <c r="B52" s="12" t="s">
         <v>215</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" hidden="1">
       <c r="B53" s="12" t="s">
         <v>215</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="2:8" hidden="1">
       <c r="B54" s="12" t="s">
         <v>215</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="2:8" hidden="1">
       <c r="B55" s="12" t="s">
         <v>215</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" hidden="1">
       <c r="B56" s="12" t="s">
         <v>159</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" hidden="1">
       <c r="B57" s="12" t="s">
         <v>159</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" hidden="1">
       <c r="B58" s="12" t="s">
         <v>160</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" hidden="1">
       <c r="B60" s="12" t="s">
         <v>160</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" hidden="1">
       <c r="B61" s="12" t="s">
         <v>160</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" hidden="1">
       <c r="B64" s="12" t="s">
         <v>161</v>
       </c>
@@ -4607,7 +4608,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" hidden="1">
       <c r="B65" s="12" t="s">
         <v>161</v>
       </c>
@@ -4630,7 +4631,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" hidden="1">
       <c r="B66" s="12" t="s">
         <v>161</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" hidden="1">
       <c r="B67" s="12" t="s">
         <v>161</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" hidden="1">
       <c r="B71" s="12" t="s">
         <v>162</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" hidden="1">
       <c r="B72" s="12" t="s">
         <v>162</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" hidden="1">
       <c r="B73" s="12" t="s">
         <v>162</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" hidden="1">
       <c r="B74" s="12" t="s">
         <v>162</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" hidden="1">
       <c r="B75" s="12" t="s">
         <v>163</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" hidden="1">
       <c r="B76" s="12" t="s">
         <v>163</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" hidden="1">
       <c r="B77" s="12" t="s">
         <v>163</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" hidden="1">
       <c r="B78" s="12" t="s">
         <v>163</v>
       </c>
@@ -4913,7 +4914,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" hidden="1">
       <c r="B79" s="12" t="s">
         <v>163</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" hidden="1">
       <c r="B80" s="12" t="s">
         <v>163</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" hidden="1">
       <c r="B81" s="12" t="s">
         <v>163</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" hidden="1">
       <c r="B82" s="12" t="s">
         <v>164</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" hidden="1">
       <c r="B83" s="12" t="s">
         <v>164</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" hidden="1">
       <c r="B84" s="12" t="s">
         <v>164</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" hidden="1">
       <c r="B85" s="12" t="s">
         <v>164</v>
       </c>
@@ -5060,7 +5061,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" hidden="1">
       <c r="B86" s="12" t="s">
         <v>164</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" hidden="1">
       <c r="B87" s="12" t="s">
         <v>112</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" hidden="1">
       <c r="B88" s="12" t="s">
         <v>112</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" hidden="1">
       <c r="B89" s="12" t="s">
         <v>112</v>
       </c>
@@ -5144,7 +5145,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="2:8">
+    <row r="90" spans="2:8" hidden="1">
       <c r="B90" s="12" t="s">
         <v>112</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="2:8">
+    <row r="91" spans="2:8" hidden="1">
       <c r="B91" s="12" t="s">
         <v>165</v>
       </c>
@@ -5185,7 +5186,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H91" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}"/>
+  <autoFilter ref="B2:H91" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="プロト"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="H4">
     <cfRule type="expression" dxfId="6" priority="7">
@@ -5316,7 +5323,7 @@
       </c>
       <c r="H4" s="2">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3">
         <f ca="1" xml:space="preserve"> H3/ H4</f>
@@ -5354,7 +5361,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45629</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5407,11 +5414,11 @@
       </c>
       <c r="I9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="3">
         <f ca="1">($H$2 - $H$3) / I9</f>
-        <v>9.4107142857142865</v>
+        <v>10.134615384615385</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5434,11 +5441,11 @@
       </c>
       <c r="I10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="3">
         <f ca="1">($H$2 - $H$3) / I10</f>
-        <v>3.875</v>
+        <v>3.9924242424242422</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5461,11 +5468,11 @@
       </c>
       <c r="I11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11" s="3">
         <f ca="1">($H$2 - $H$3) / I11</f>
-        <v>2.9277777777777776</v>
+        <v>2.9943181818181817</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6393,26 +6400,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a941b55e-93da-46ce-aa06-cdf502f284a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F99BFAA0B83A8F4C93558AE126794799" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9701ab53e3b575107903ae5d91f9bfac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a941b55e-93da-46ce-aa06-cdf502f284a4" xmlns:ns3="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179fc34737a7948d392d57a69f3d9b63" ns2:_="" ns3:_="">
     <xsd:import namespace="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
@@ -6613,10 +6600,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a941b55e-93da-46ce-aa06-cdf502f284a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BE2794-E616-4782-ACD4-BB50DF8286E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
+    <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6633,20 +6651,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BE2794-E616-4782-ACD4-BB50DF8286E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
-    <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/課題11月1から開始/喜遼_進捗コスト表.xlsx
+++ b/課題11月1から開始/喜遼_進捗コスト表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447030\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BBB355-F25B-4E60-8B3B-B12D7B35D2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1FB943-8CD9-4AC8-9B5F-6BB632D46AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="-14370" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業状況" sheetId="7" r:id="rId1"/>
@@ -1671,36 +1671,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1855,22 +1825,34 @@
           </c:dPt>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="75000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1880,30 +1862,26 @@
                 <a:endParaRPr lang="ja-JP"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1942,10 +1920,10 @@
                   <c:v>60.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.75</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1954,7 +1932,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,14 +1944,13 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -2003,7 +1980,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
@@ -2949,7 +2926,7 @@
   <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2980,7 +2957,7 @@
       </c>
       <c r="C3">
         <f>SUMIF(作業効率見積もり!H3:H91,"完了",作業効率見積もり!F3:F91)</f>
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -3011,11 +2988,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
-        <v>0.27083333333333331</v>
+        <v>0.35</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>226</v>
@@ -3026,11 +3003,11 @@
       </c>
       <c r="J4" s="30">
         <f>SUMIF(作業効率見積もり!H3:H91,"作業中",作業効率見積もり!F3:F91)</f>
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="K4" s="30">
         <f>SUMIF(作業効率見積もり!H3:H91,"作業停止中",作業効率見積もり!F3:F91)</f>
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="L4" s="30">
         <f>SUMIF(作業効率見積もり!H3:H91,"バグ発生中",作業効率見積もり!F3:F91)</f>
@@ -3042,7 +3019,7 @@
       </c>
       <c r="N4" s="30">
         <f>SUMIF(作業効率見積もり!H3:H91,"完了",作業効率見積もり!F3:F91)</f>
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -3072,7 +3049,7 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>223</v>
@@ -3131,11 +3108,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>4.1730769230769234</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -3148,11 +3125,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.643939393939394</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -3165,11 +3142,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>1.2329545454545454</v>
+        <v>1.2093023255813953</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -3226,8 +3203,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3310,7 +3287,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="2:8" hidden="1">
+    <row r="5" spans="2:8">
       <c r="B5" s="12" t="s">
         <v>155</v>
       </c>
@@ -3333,7 +3310,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="2:8" hidden="1">
+    <row r="6" spans="2:8">
       <c r="B6" s="12" t="s">
         <v>155</v>
       </c>
@@ -3356,7 +3333,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="2:8" hidden="1">
+    <row r="7" spans="2:8">
       <c r="B7" s="12" t="s">
         <v>155</v>
       </c>
@@ -3379,7 +3356,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="2:8" hidden="1">
+    <row r="8" spans="2:8">
       <c r="B8" s="12" t="s">
         <v>155</v>
       </c>
@@ -3402,7 +3379,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="2:8" hidden="1">
+    <row r="9" spans="2:8">
       <c r="B9" s="12" t="s">
         <v>155</v>
       </c>
@@ -3425,7 +3402,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="2:8" hidden="1">
+    <row r="10" spans="2:8">
       <c r="B10" s="12" t="s">
         <v>155</v>
       </c>
@@ -3448,7 +3425,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="2:8" hidden="1">
+    <row r="11" spans="2:8">
       <c r="B11" s="12" t="s">
         <v>155</v>
       </c>
@@ -3471,7 +3448,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="2:8" hidden="1">
+    <row r="12" spans="2:8">
       <c r="B12" s="12" t="s">
         <v>155</v>
       </c>
@@ -3494,7 +3471,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="2:8" hidden="1">
+    <row r="13" spans="2:8">
       <c r="B13" s="12" t="s">
         <v>154</v>
       </c>
@@ -3514,10 +3491,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" hidden="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="12" t="s">
         <v>154</v>
       </c>
@@ -3537,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" hidden="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="12" t="s">
         <v>154</v>
       </c>
@@ -3560,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" hidden="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="12" t="s">
         <v>154</v>
       </c>
@@ -3583,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" hidden="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="12" t="s">
         <v>154</v>
       </c>
@@ -3606,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -3626,13 +3603,13 @@
         <v>0.25</v>
       </c>
       <c r="G18" s="17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:8" hidden="1">
+    <row r="19" spans="2:8">
       <c r="B19" s="12" t="s">
         <v>158</v>
       </c>
@@ -3653,7 +3630,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1">
+    <row r="20" spans="2:8">
       <c r="B20" s="12" t="s">
         <v>158</v>
       </c>
@@ -3720,7 +3697,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1">
+    <row r="23" spans="2:8">
       <c r="B23" s="12" t="s">
         <v>158</v>
       </c>
@@ -3741,7 +3718,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1">
+    <row r="24" spans="2:8">
       <c r="B24" s="12" t="s">
         <v>158</v>
       </c>
@@ -3759,10 +3736,10 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" hidden="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="12" t="s">
         <v>158</v>
       </c>
@@ -3783,7 +3760,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1">
+    <row r="26" spans="2:8">
       <c r="B26" s="12" t="s">
         <v>158</v>
       </c>
@@ -3804,7 +3781,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1">
+    <row r="27" spans="2:8">
       <c r="B27" s="12" t="s">
         <v>158</v>
       </c>
@@ -3825,7 +3802,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1">
+    <row r="28" spans="2:8">
       <c r="B28" s="12" t="s">
         <v>158</v>
       </c>
@@ -3846,7 +3823,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1">
+    <row r="29" spans="2:8">
       <c r="B29" s="12" t="s">
         <v>158</v>
       </c>
@@ -3867,7 +3844,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1">
+    <row r="30" spans="2:8">
       <c r="B30" s="12" t="s">
         <v>158</v>
       </c>
@@ -3888,7 +3865,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1">
+    <row r="31" spans="2:8">
       <c r="B31" s="12" t="s">
         <v>158</v>
       </c>
@@ -3909,7 +3886,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1">
+    <row r="32" spans="2:8">
       <c r="B32" s="12" t="s">
         <v>158</v>
       </c>
@@ -3930,7 +3907,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1">
+    <row r="33" spans="2:8">
       <c r="B33" s="12" t="s">
         <v>158</v>
       </c>
@@ -3951,7 +3928,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="2:8" hidden="1">
+    <row r="34" spans="2:8">
       <c r="B34" s="12" t="s">
         <v>158</v>
       </c>
@@ -3972,7 +3949,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1">
+    <row r="35" spans="2:8">
       <c r="B35" s="12" t="s">
         <v>158</v>
       </c>
@@ -3990,7 +3967,7 @@
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="2:8" hidden="1">
@@ -4032,7 +4009,7 @@
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -4051,12 +4028,14 @@
       <c r="F38" s="17">
         <v>0.25</v>
       </c>
-      <c r="G38" s="17"/>
+      <c r="G38" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H38" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="2:8" hidden="1">
+    <row r="39" spans="2:8">
       <c r="B39" s="12" t="s">
         <v>211</v>
       </c>
@@ -4074,10 +4053,10 @@
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" hidden="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="12" t="s">
         <v>211</v>
       </c>
@@ -4095,10 +4074,10 @@
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" hidden="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" s="12" t="s">
         <v>213</v>
       </c>
@@ -4119,7 +4098,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1">
+    <row r="42" spans="2:8">
       <c r="B42" s="12" t="s">
         <v>213</v>
       </c>
@@ -4140,7 +4119,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1">
+    <row r="43" spans="2:8">
       <c r="B43" s="12" t="s">
         <v>213</v>
       </c>
@@ -4161,7 +4140,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1">
+    <row r="44" spans="2:8">
       <c r="B44" s="12" t="s">
         <v>213</v>
       </c>
@@ -4182,7 +4161,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="2:8" hidden="1">
+    <row r="45" spans="2:8">
       <c r="B45" s="12" t="s">
         <v>213</v>
       </c>
@@ -4203,7 +4182,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1">
+    <row r="46" spans="2:8">
       <c r="B46" s="12" t="s">
         <v>213</v>
       </c>
@@ -4224,7 +4203,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="2:8" hidden="1">
+    <row r="47" spans="2:8">
       <c r="B47" s="12" t="s">
         <v>213</v>
       </c>
@@ -4561,7 +4540,7 @@
         <v>0.25</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="2:8">
@@ -4581,7 +4560,7 @@
         <v>2.25</v>
       </c>
       <c r="G63" s="17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H63" s="17" t="s">
         <v>193</v>
@@ -4631,7 +4610,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="66" spans="2:8" hidden="1">
+    <row r="66" spans="2:8">
       <c r="B66" s="12" t="s">
         <v>161</v>
       </c>
@@ -4828,7 +4807,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="2:8" hidden="1">
+    <row r="75" spans="2:8">
       <c r="B75" s="12" t="s">
         <v>163</v>
       </c>
@@ -4872,7 +4851,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="77" spans="2:8" hidden="1">
+    <row r="77" spans="2:8">
       <c r="B77" s="12" t="s">
         <v>163</v>
       </c>
@@ -4893,7 +4872,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="2:8" hidden="1">
+    <row r="78" spans="2:8">
       <c r="B78" s="12" t="s">
         <v>163</v>
       </c>
@@ -4914,7 +4893,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="79" spans="2:8" hidden="1">
+    <row r="79" spans="2:8">
       <c r="B79" s="12" t="s">
         <v>163</v>
       </c>
@@ -5189,6 +5168,7 @@
   <autoFilter ref="B2:H91" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}">
     <filterColumn colId="3">
       <filters>
+        <filter val="α"/>
         <filter val="プロト"/>
       </filters>
     </filterColumn>
@@ -5323,7 +5303,7 @@
       </c>
       <c r="H4" s="2">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3">
         <f ca="1" xml:space="preserve"> H3/ H4</f>
@@ -5361,7 +5341,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45630</v>
+        <v>45631</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5414,11 +5394,11 @@
       </c>
       <c r="I9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="3">
         <f ca="1">($H$2 - $H$3) / I9</f>
-        <v>10.134615384615385</v>
+        <v>10.979166666666666</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5441,11 +5421,11 @@
       </c>
       <c r="I10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="3">
         <f ca="1">($H$2 - $H$3) / I10</f>
-        <v>3.9924242424242422</v>
+        <v>4.1171875</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5468,11 +5448,11 @@
       </c>
       <c r="I11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="3">
         <f ca="1">($H$2 - $H$3) / I11</f>
-        <v>2.9943181818181817</v>
+        <v>3.0639534883720931</v>
       </c>
     </row>
     <row r="12" spans="1:10">

--- a/課題11月1から開始/喜遼_進捗コスト表.xlsx
+++ b/課題11月1から開始/喜遼_進捗コスト表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447030\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiryo\Documents\GitHub\GameKiryo3\課題11月1から開始\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1FB943-8CD9-4AC8-9B5F-6BB632D46AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B6C4BF-0B03-43F8-B2C5-46CA8A7A81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="-14370" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="22275" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業状況" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="11.25元データ" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業効率見積もり!$B$2:$H$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業効率見積もり!$B$2:$H$87</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="228">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
   </si>
@@ -607,22 +607,6 @@
   </si>
   <si>
     <t>弾(その他)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>球と球の当たり判定</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>球と短形の当たり判定</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>球とマップの当たり判定</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>短形と球の当たり判定</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1577,6 +1561,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1622,13 +1613,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF9751CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1917,10 +1901,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>60.75</c:v>
+                  <c:v>59.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.25</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.25</c:v>
@@ -1932,7 +1916,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.75</c:v>
+                  <c:v>13.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2925,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797CB909-86B9-4463-B23D-74EEE6CF1674}">
   <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2947,8 +2931,8 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <f>SUM(作業効率見積もり!F3:F91)</f>
-        <v>60.75</v>
+        <f>SUM(作業効率見積もり!F3:F87)</f>
+        <v>59.75</v>
       </c>
     </row>
     <row r="3" spans="2:14">
@@ -2956,8 +2940,8 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <f>SUMIF(作業効率見積もり!H3:H91,"完了",作業効率見積もり!F3:F91)</f>
-        <v>8.75</v>
+        <f>SUMIF(作業効率見積もり!H3:H87,"完了",作業効率見積もり!F3:F87)</f>
+        <v>13.75</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2967,19 +2951,19 @@
         <v>7</v>
       </c>
       <c r="J3" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" s="38" t="s">
         <v>227</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -2988,38 +2972,38 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">NETWORKDAYS(C5,C6)</f>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3">
         <f ca="1" xml:space="preserve"> C3/ C4</f>
-        <v>0.35</v>
+        <v>0.36184210526315791</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I4" s="30">
-        <f>SUM(作業効率見積もり!F3:F91)</f>
-        <v>60.75</v>
+        <f>SUM(作業効率見積もり!F3:F87)</f>
+        <v>59.75</v>
       </c>
       <c r="J4" s="30">
-        <f>SUMIF(作業効率見積もり!H3:H91,"作業中",作業効率見積もり!F3:F91)</f>
+        <f>SUMIF(作業効率見積もり!H3:H87,"作業中",作業効率見積もり!F3:F87)</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="30">
+        <f>SUMIF(作業効率見積もり!H3:H87,"作業停止中",作業効率見積もり!F3:F87)</f>
         <v>8.25</v>
       </c>
-      <c r="K4" s="30">
-        <f>SUMIF(作業効率見積もり!H3:H91,"作業停止中",作業効率見積もり!F3:F91)</f>
-        <v>8.25</v>
-      </c>
       <c r="L4" s="30">
-        <f>SUMIF(作業効率見積もり!H3:H91,"バグ発生中",作業効率見積もり!F3:F91)</f>
+        <f>SUMIF(作業効率見積もり!H3:H87,"バグ発生中",作業効率見積もり!F3:F87)</f>
         <v>0</v>
       </c>
       <c r="M4" s="30">
-        <f>SUMIF(作業効率見積もり!H3:H91,"機能削除",作業効率見積もり!F3:F91)</f>
+        <f>SUMIF(作業効率見積もり!H3:H87,"機能削除",作業効率見積もり!F3:F87)</f>
         <v>0</v>
       </c>
       <c r="N4" s="30">
-        <f>SUMIF(作業効率見積もり!H3:H91,"完了",作業効率見積もり!F3:F91)</f>
-        <v>8.75</v>
+        <f>SUMIF(作業効率見積もり!H3:H87,"完了",作業効率見積もり!F3:F87)</f>
+        <v>13.75</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -3031,10 +3015,10 @@
         <v>45597</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I5" s="31">
-        <f>SUMIF(作業効率見積もり!E3:E91,"プロト",作業効率見積もり!F3:F91)</f>
+        <f>SUMIF(作業効率見積もり!E3:E87,"プロト",作業効率見積もり!F3:F87)</f>
         <v>16.25</v>
       </c>
       <c r="J5" s="32"/>
@@ -3049,14 +3033,14 @@
       </c>
       <c r="C6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45631</v>
+        <v>45650</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I6" s="30">
-        <f>SUMIF(作業効率見積もり!E3:E91,"α",作業効率見積もり!F3:F91)</f>
-        <v>20.25</v>
+        <f>SUMIF(作業効率見積もり!E3:E87,"α",作業効率見積もり!F3:F87)</f>
+        <v>19.25</v>
       </c>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
@@ -3066,10 +3050,10 @@
     </row>
     <row r="7" spans="2:14">
       <c r="H7" s="28" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I7" s="30">
-        <f>SUMIF(作業効率見積もり!E3:E91,"β",作業効率見積もり!F3:F91)</f>
+        <f>SUMIF(作業効率見積もり!E3:E87,"β",作業効率見積もり!F3:F87)</f>
         <v>21.25</v>
       </c>
       <c r="J7" s="30"/>
@@ -3086,10 +3070,10 @@
         <v>20</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I8" s="30">
-        <f>SUMIF(作業効率見積もり!E3:E91,"マスター",作業効率見積もり!F3:F91)</f>
+        <f>SUMIF(作業効率見積もり!E3:E87,"マスター",作業効率見積もり!F3:F87)</f>
         <v>3</v>
       </c>
       <c r="J8" s="30"/>
@@ -3108,11 +3092,11 @@
       </c>
       <c r="D9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C9)</f>
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">($C$2 - $C$3) / D9</f>
-        <v>4.333333333333333</v>
+        <v>-15.333333333333334</v>
       </c>
     </row>
     <row r="10" spans="2:14">
@@ -3125,11 +3109,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$2 - $C$3) / D10</f>
-        <v>1.625</v>
+        <v>2.4210526315789473</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -3142,11 +3126,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$2 - $C$3) / D11</f>
-        <v>1.2093023255813953</v>
+        <v>1.5333333333333334</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -3156,37 +3140,37 @@
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C14">
-        <f>SUMIF(作業効率見積もり!D3:D91,"S",作業効率見積もり!F3:F91)</f>
-        <v>44.75</v>
+        <f>SUMIF(作業効率見積もり!D3:D87,"S",作業効率見積もり!F3:F87)</f>
+        <v>43.75</v>
       </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C15">
-        <f>SUMIF(作業効率見積もり!D3:D91,"A",作業効率見積もり!F3:F91)</f>
+        <f>SUMIF(作業効率見積もり!D3:D87,"A",作業効率見積もり!F3:F87)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="23" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C16">
-        <f>SUMIF(作業効率見積もり!D3:D91,"B",作業効率見積もり!F3:F91)</f>
+        <f>SUMIF(作業効率見積もり!D3:D87,"B",作業効率見積もり!F3:F87)</f>
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="24" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C17">
-        <f>SUMIF(作業効率見積もり!D3:D91,"C",作業効率見積もり!F3:F91)</f>
+        <f>SUMIF(作業効率見積もり!D3:D87,"C",作業効率見積もり!F3:F87)</f>
         <v>3.5</v>
       </c>
     </row>
@@ -3200,11 +3184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:H91"/>
+  <dimension ref="B2:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3224,19 +3207,19 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>3</v>
@@ -3247,14 +3230,14 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F3" s="17">
         <v>1.5</v>
@@ -3263,19 +3246,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F4" s="17">
         <v>3</v>
@@ -3284,21 +3267,21 @@
         <v>1</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F5" s="17">
         <v>0.5</v>
@@ -3307,21 +3290,21 @@
         <v>0.13</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F6" s="17">
         <v>0.5</v>
@@ -3330,21 +3313,21 @@
         <v>0.13</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="17">
         <v>0.5</v>
@@ -3353,21 +3336,21 @@
         <v>0.13</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F8" s="17">
         <v>0.5</v>
@@ -3376,21 +3359,21 @@
         <v>0.13</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F9" s="17">
         <v>0.5</v>
@@ -3399,21 +3382,21 @@
         <v>0.13</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F10" s="17">
         <v>0.75</v>
@@ -3422,21 +3405,21 @@
         <v>0.13</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F11" s="17">
         <v>0.5</v>
@@ -3445,21 +3428,21 @@
         <v>0.13</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F12" s="17">
         <v>0.5</v>
@@ -3468,21 +3451,21 @@
         <v>0.13</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F13" s="17">
         <v>0.25</v>
@@ -3491,30 +3474,30 @@
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>118</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F14" s="17">
         <v>0.25</v>
       </c>
       <c r="G14" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -3525,19 +3508,17 @@
         <v>119</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F15" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="17"/>
       <c r="H15" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -3548,19 +3529,17 @@
         <v>120</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F16" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="17"/>
       <c r="H16" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -3571,19 +3550,19 @@
         <v>121</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F17" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="17">
         <v>0.25</v>
       </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
       <c r="H17" s="17" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -3591,439 +3570,437 @@
         <v>154</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F18" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="17">
         <v>0.25</v>
       </c>
-      <c r="G18" s="17">
-        <v>0.5</v>
-      </c>
       <c r="H18" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F19" s="17">
         <v>0.5</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F20" s="17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F21" s="17">
         <v>0.5</v>
       </c>
-      <c r="G21" s="17">
-        <v>0.25</v>
-      </c>
+      <c r="G21" s="17"/>
       <c r="H21" s="17" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F22" s="17">
         <v>0.5</v>
       </c>
-      <c r="G22" s="17">
-        <v>0.25</v>
-      </c>
+      <c r="G22" s="17"/>
       <c r="H22" s="17" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F23" s="17">
         <v>0.5</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F24" s="17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F25" s="17">
         <v>0.5</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>187</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F26" s="17">
         <v>0.5</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F27" s="17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F28" s="17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F29" s="17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F30" s="17">
         <v>0.5</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F31" s="17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F32" s="17">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="12" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F33" s="17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="12" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F34" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G34" s="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H34" s="17" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="12" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F35" s="17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" hidden="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="12" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F36" s="17">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F37" s="17">
         <v>0.5</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F38" s="17">
         <v>0.25</v>
@@ -4032,1184 +4009,1093 @@
         <v>0.25</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F39" s="17">
         <v>0.25</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F40" s="17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F41" s="17">
         <v>0.5</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="D42" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F42" s="17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="17" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F43" s="17">
         <v>0.25</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F44" s="17">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F45" s="17">
         <v>0.5</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F46" s="17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F47" s="17">
         <v>0.25</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" hidden="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F48" s="17">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F49" s="17">
         <v>0.5</v>
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F50" s="17">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G50" s="17"/>
       <c r="H50" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
       <c r="B51" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F51" s="17">
         <v>0.25</v>
       </c>
       <c r="G51" s="17"/>
       <c r="H51" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" s="12" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F52" s="17">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G52" s="17"/>
       <c r="H52" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" s="12" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F53" s="17">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G53" s="17"/>
       <c r="H53" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" s="12" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F54" s="17">
         <v>0.5</v>
       </c>
       <c r="G54" s="17"/>
       <c r="H54" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="12" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F55" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="G55" s="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H55" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" hidden="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F56" s="17">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G56" s="17"/>
       <c r="H56" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F57" s="17">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F58" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G58" s="17"/>
+        <v>2.25</v>
+      </c>
+      <c r="G58" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H58" s="17" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F59" s="17">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="G59" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" hidden="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F60" s="17">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F61" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G61" s="17"/>
+        <v>2.25</v>
+      </c>
+      <c r="G61" s="17">
+        <v>0.25</v>
+      </c>
       <c r="H61" s="17" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F62" s="17">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="G62" s="17">
         <v>0.25</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E63" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="17">
-        <v>2.25</v>
-      </c>
-      <c r="G63" s="17">
-        <v>0</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" hidden="1">
-      <c r="B64" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>182</v>
-      </c>
       <c r="E64" s="17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F64" s="17">
         <v>2.25</v>
       </c>
-      <c r="G64" s="17"/>
+      <c r="G64" s="17">
+        <v>1.5</v>
+      </c>
       <c r="H64" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" hidden="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F65" s="17">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="G65" s="17">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F66" s="17">
         <v>1.25</v>
       </c>
       <c r="G66" s="17">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" hidden="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F67" s="17">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F68" s="17">
-        <v>2.25</v>
-      </c>
-      <c r="G68" s="17">
-        <v>1.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="17"/>
       <c r="H68" s="17" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F69" s="17">
-        <v>1.25</v>
-      </c>
-      <c r="G69" s="17">
-        <v>1.25</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="17"/>
       <c r="H69" s="17" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F70" s="17">
-        <v>1.25</v>
-      </c>
-      <c r="G70" s="17">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="G70" s="17"/>
       <c r="H70" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F71" s="17">
         <v>0.5</v>
       </c>
-      <c r="G71" s="17"/>
+      <c r="G71" s="17">
+        <v>0.01</v>
+      </c>
       <c r="H71" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" hidden="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
       <c r="B72" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F72" s="17">
         <v>0.5</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>169</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F73" s="17">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
       <c r="B74" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F74" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G74" s="17"/>
       <c r="H74" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F75" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G75" s="17">
-        <v>0.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G75" s="17"/>
       <c r="H75" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
       <c r="B76" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F76" s="17">
         <v>0.5</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F77" s="17">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F78" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G78" s="17"/>
       <c r="H78" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F79" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
       <c r="B80" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F80" s="17">
         <v>0.5</v>
       </c>
       <c r="G80" s="17"/>
       <c r="H80" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
       <c r="B81" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="F81" s="17">
         <v>0.5</v>
       </c>
       <c r="G81" s="17"/>
       <c r="H81" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
       <c r="B82" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>176</v>
       </c>
       <c r="F82" s="17">
         <v>0.5</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
       <c r="B83" s="12" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F83" s="17">
         <v>0.5</v>
       </c>
       <c r="G83" s="17"/>
       <c r="H83" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
       <c r="B84" s="12" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F84" s="17">
         <v>0.5</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
       <c r="B85" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>143</v>
+        <v>112</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E85" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="F85" s="17">
         <v>0.5</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
       <c r="B86" s="12" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="F86" s="17">
         <v>0.5</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" hidden="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
       <c r="B87" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C87" s="7"/>
       <c r="D87" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F87" s="17">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" hidden="1">
-      <c r="B88" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F88" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" hidden="1">
-      <c r="B89" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F89" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" hidden="1">
-      <c r="B90" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F90" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" hidden="1">
-      <c r="B91" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="F91" s="17">
-        <v>3</v>
-      </c>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H91" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="α"/>
-        <filter val="プロト"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:H87" xr:uid="{5A6DF139-192D-48B6-98F1-19C45EBB27CD}"/>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="B3:H87">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>$H3="作業停止中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>$H3="中平"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$H3="機能削除"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$H3="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$H3="バグ発生中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>$H3="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>$C3=" 完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:H91">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$H3="作業停止中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$H3="中平"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$H3="機能削除"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$H3="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>$H3="バグ発生中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>$H3="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E91" xr:uid="{DEF53051-3C63-4D14-AD01-861C95762F58}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E87" xr:uid="{DEF53051-3C63-4D14-AD01-861C95762F58}">
       <formula1>"プロト,α,β,マスター"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D91" xr:uid="{63FF5DD3-50FC-403D-A1DC-E330178AE879}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D87" xr:uid="{63FF5DD3-50FC-403D-A1DC-E330178AE879}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H91" xr:uid="{16EE4D6F-FAB2-4081-9FB7-C3677BDAEB05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H87" xr:uid="{16EE4D6F-FAB2-4081-9FB7-C3677BDAEB05}">
       <formula1>"未着手,作業中,作業停止中,バグ発生中,機能削除,完了"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F91" xr:uid="{77C2663D-68F6-4E5A-9B12-7B35694C6A92}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F87" xr:uid="{77C2663D-68F6-4E5A-9B12-7B35694C6A92}">
       <formula1>"0,0.25,0.5,0.75,1,1.25,1.5,1.75,2,2.25,2.5,2.75,3,3.25,3.5,3.75,4,4.25,4.5,4.75,5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5303,7 +5189,7 @@
       </c>
       <c r="H4" s="2">
         <f ca="1">NETWORKDAYS(H5,H6)</f>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I4" s="3">
         <f ca="1" xml:space="preserve"> H3/ H4</f>
@@ -5341,7 +5227,7 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45631</v>
+        <v>45650</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5394,11 +5280,11 @@
       </c>
       <c r="I9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H9)</f>
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="J9" s="3">
         <f ca="1">($H$2 - $H$3) / I9</f>
-        <v>10.979166666666666</v>
+        <v>-43.916666666666664</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5421,11 +5307,11 @@
       </c>
       <c r="I10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H10)</f>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J10" s="3">
         <f ca="1">($H$2 - $H$3) / I10</f>
-        <v>4.1171875</v>
+        <v>6.9342105263157894</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5448,11 +5334,11 @@
       </c>
       <c r="I11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),H11)</f>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J11" s="3">
         <f ca="1">($H$2 - $H$3) / I11</f>
-        <v>3.0639534883720931</v>
+        <v>4.3916666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6380,6 +6266,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a941b55e-93da-46ce-aa06-cdf502f284a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F99BFAA0B83A8F4C93558AE126794799" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9701ab53e3b575107903ae5d91f9bfac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a941b55e-93da-46ce-aa06-cdf502f284a4" xmlns:ns3="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="179fc34737a7948d392d57a69f3d9b63" ns2:_="" ns3:_="">
     <xsd:import namespace="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
@@ -6580,17 +6477,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="366ce47f-d239-4c0e-b1fe-78bb0d1cad63" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a941b55e-93da-46ce-aa06-cdf502f284a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6601,6 +6487,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
+    <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65BE2794-E616-4782-ACD4-BB50DF8286E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6619,17 +6516,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="366ce47f-d239-4c0e-b1fe-78bb0d1cad63"/>
-    <ds:schemaRef ds:uri="a941b55e-93da-46ce-aa06-cdf502f284a4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
